--- a/easyApraisal/Output.xlsx
+++ b/easyApraisal/Output.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brocku-my.sharepoint.com/personal/zdai_brocku_ca/Documents/TA/Chris/project2/matrixUtil/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brocku-my.sharepoint.com/personal/zdai_brocku_ca/Documents/TA/Chris/project2/easyApraisal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="52" documentId="13_ncr:1_{2AA066E3-B413-45EC-9302-AA035445FA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C93597BD-A9A7-496D-982E-EE6C708D08F9}"/>
+  <xr:revisionPtr revIDLastSave="100" documentId="13_ncr:1_{2AA066E3-B413-45EC-9302-AA035445FA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8545E53D-924C-4FD9-8B60-0A2B1F5E641E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{21D087D2-6D08-4209-BF04-7B58676F50D0}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">rules!$A$1:$K$121</definedName>
   </definedNames>
-  <calcPr calcId="191029" refMode="R1C1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +27,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="210">
   <si>
     <t>Street address</t>
   </si>
@@ -621,6 +623,51 @@
   </si>
   <si>
     <t>//span[contains(text(),"Beds (AG+BG):")]/following::td[1]</t>
+  </si>
+  <si>
+    <t>Built up</t>
+  </si>
+  <si>
+    <t>Age conformity</t>
+  </si>
+  <si>
+    <t>Size conformity</t>
+  </si>
+  <si>
+    <t>Condition conformity</t>
+  </si>
+  <si>
+    <t>Utility</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Roof condition</t>
+  </si>
+  <si>
+    <t>Exterior finish condition</t>
+  </si>
+  <si>
+    <t>Garage panel (skip if none)</t>
+  </si>
+  <si>
+    <t>Water heater fuel</t>
+  </si>
+  <si>
+    <t>Closets</t>
+  </si>
+  <si>
+    <t>Insulation AG</t>
+  </si>
+  <si>
+    <t>Extras</t>
+  </si>
+  <si>
+    <t>Garage type</t>
+  </si>
+  <si>
+    <t>Floor Plan</t>
   </si>
 </sst>
 </file>
@@ -630,7 +677,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -666,8 +713,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -716,8 +769,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -725,11 +784,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -756,6 +830,9 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1375,8 +1452,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C116" sqref="C116"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection sqref="A1:C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1418,7 +1495,7 @@
       </c>
       <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>0</v>
       </c>
@@ -1435,7 +1512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
         <v>1</v>
       </c>
@@ -1450,7 +1527,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
@@ -1465,7 +1542,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
@@ -1480,7 +1557,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
         <v>8</v>
       </c>
@@ -1497,7 +1574,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
         <v>10</v>
       </c>
@@ -1539,7 +1616,7 @@
       </c>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
         <v>92</v>
       </c>
@@ -1551,7 +1628,7 @@
       </c>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>76</v>
       </c>
@@ -1566,7 +1643,7 @@
       </c>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
         <v>93</v>
       </c>
@@ -1583,28 +1660,37 @@
         <v>151</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>152</v>
       </c>
       <c r="B15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C15" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>167</v>
       </c>
       <c r="B16" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C16" s="22" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>55</v>
       </c>
       <c r="B17" t="s">
         <v>59</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="13" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
@@ -1613,66 +1699,87 @@
       </c>
       <c r="J18" s="12"/>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B19" t="s">
         <v>59</v>
       </c>
+      <c r="C19" s="22" t="s">
+        <v>94</v>
+      </c>
       <c r="J19" s="9"/>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>95</v>
       </c>
       <c r="B20" t="s">
         <v>59</v>
       </c>
+      <c r="C20" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="J20" s="9"/>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>96</v>
       </c>
       <c r="B21" t="s">
         <v>59</v>
       </c>
+      <c r="C21" s="22" t="s">
+        <v>96</v>
+      </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B22" t="s">
         <v>59</v>
       </c>
+      <c r="C22" s="25" t="s">
+        <v>195</v>
+      </c>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>98</v>
       </c>
       <c r="B23" t="s">
         <v>59</v>
       </c>
+      <c r="C23" s="25" t="s">
+        <v>196</v>
+      </c>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B24" t="s">
         <v>59</v>
       </c>
+      <c r="C24" s="25" t="s">
+        <v>198</v>
+      </c>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B25" t="s">
         <v>59</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>197</v>
       </c>
       <c r="J25" s="9"/>
     </row>
@@ -1733,7 +1840,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>112</v>
       </c>
@@ -1744,75 +1851,99 @@
         <v>178</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>105</v>
       </c>
       <c r="B32" t="s">
         <v>59</v>
       </c>
+      <c r="C32" s="25" t="s">
+        <v>199</v>
+      </c>
       <c r="J32" s="9"/>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B33" t="s">
         <v>59</v>
       </c>
+      <c r="C33" s="22" t="s">
+        <v>106</v>
+      </c>
       <c r="J33" s="9"/>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
+      <c r="C34" s="22" t="s">
+        <v>107</v>
+      </c>
       <c r="J34" s="9"/>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B35" t="s">
         <v>59</v>
       </c>
+      <c r="C35" s="22" t="s">
+        <v>109</v>
+      </c>
       <c r="J35" s="9"/>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B36" t="s">
         <v>59</v>
       </c>
+      <c r="C36" s="22" t="s">
+        <v>108</v>
+      </c>
       <c r="J36" s="9"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>110</v>
       </c>
       <c r="B37" t="s">
         <v>59</v>
       </c>
+      <c r="C37" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="J37" s="9"/>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B38" t="s">
         <v>59</v>
       </c>
+      <c r="C38" s="22" t="s">
+        <v>67</v>
+      </c>
       <c r="J38" s="9"/>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B39" t="s">
         <v>59</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>111</v>
       </c>
       <c r="J39" s="9"/>
     </row>
@@ -1822,7 +1953,7 @@
       </c>
       <c r="J40" s="12"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
         <v>114</v>
       </c>
@@ -1834,300 +1965,399 @@
       </c>
       <c r="J41" s="9"/>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B42" t="s">
         <v>59</v>
       </c>
+      <c r="C42" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="J42" s="9"/>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B43" t="s">
         <v>59</v>
       </c>
+      <c r="C43" s="25" t="s">
+        <v>200</v>
+      </c>
       <c r="J43" s="9"/>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>116</v>
       </c>
       <c r="B44" t="s">
         <v>59</v>
       </c>
+      <c r="C44" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="J44" s="9"/>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B45" t="s">
         <v>59</v>
       </c>
+      <c r="C45" s="22" t="s">
+        <v>117</v>
+      </c>
       <c r="J45" s="9"/>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B46" t="s">
         <v>59</v>
       </c>
+      <c r="C46" s="22" t="s">
+        <v>75</v>
+      </c>
       <c r="J46" s="9"/>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
       <c r="B47" t="s">
         <v>59</v>
       </c>
+      <c r="C47" s="16" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="J47" s="9"/>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B48" t="s">
         <v>59</v>
       </c>
+      <c r="C48" s="25" t="s">
+        <v>142</v>
+      </c>
       <c r="J48" s="9"/>
     </row>
-    <row r="49" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B49" t="s">
         <v>59</v>
       </c>
+      <c r="C49" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="J49" s="9"/>
     </row>
-    <row r="50" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B50" t="s">
         <v>59</v>
       </c>
+      <c r="C50" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="J50" s="9"/>
     </row>
-    <row r="51" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B51" t="s">
         <v>59</v>
       </c>
+      <c r="C51" s="25" t="s">
+        <v>201</v>
+      </c>
       <c r="J51" s="9"/>
     </row>
-    <row r="52" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B52" t="s">
         <v>59</v>
       </c>
+      <c r="C52" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="J52" s="9"/>
     </row>
-    <row r="53" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B53" t="s">
         <v>59</v>
       </c>
+      <c r="C53" s="25" t="s">
+        <v>202</v>
+      </c>
       <c r="J53" s="9"/>
     </row>
-    <row r="54" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B54" t="s">
         <v>59</v>
       </c>
+      <c r="C54" s="16" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="J54" s="9"/>
     </row>
-    <row r="55" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B55" t="s">
         <v>59</v>
       </c>
+      <c r="C55" s="16" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="J55" s="9"/>
     </row>
-    <row r="56" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B56" t="s">
         <v>59</v>
       </c>
+      <c r="C56" s="16" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="J56" s="9"/>
     </row>
-    <row r="57" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B57" t="s">
         <v>59</v>
       </c>
+      <c r="C57" s="16" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="J57" s="9"/>
     </row>
-    <row r="58" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
+      <c r="C58" s="16" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="J58" s="9"/>
     </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B59" t="s">
         <v>59</v>
       </c>
+      <c r="C59" s="16" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="J59" s="9"/>
     </row>
-    <row r="60" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B60" t="s">
         <v>59</v>
       </c>
+      <c r="C60" s="25" t="s">
+        <v>203</v>
+      </c>
       <c r="J60" s="9"/>
     </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>132</v>
       </c>
       <c r="B61" t="s">
         <v>59</v>
       </c>
+      <c r="C61" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="J61" s="9"/>
     </row>
-    <row r="62" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B62" t="s">
         <v>59</v>
       </c>
+      <c r="C62" s="22" t="s">
+        <v>133</v>
+      </c>
       <c r="J62" s="9"/>
     </row>
-    <row r="63" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B63" t="s">
         <v>59</v>
       </c>
+      <c r="C63" s="25" t="s">
+        <v>204</v>
+      </c>
       <c r="J63" s="9"/>
     </row>
-    <row r="64" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B64" t="s">
         <v>59</v>
       </c>
+      <c r="C64" s="25" t="s">
+        <v>205</v>
+      </c>
       <c r="J64" s="9"/>
     </row>
-    <row r="65" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B65" t="s">
         <v>59</v>
       </c>
+      <c r="C65" s="25" t="s">
+        <v>206</v>
+      </c>
       <c r="J65" s="9"/>
     </row>
-    <row r="66" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B66" t="s">
         <v>59</v>
       </c>
+      <c r="C66" s="22" t="s">
+        <v>137</v>
+      </c>
       <c r="J66" s="9"/>
     </row>
-    <row r="67" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B67" t="s">
         <v>59</v>
       </c>
+      <c r="C67" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="J67" s="9"/>
     </row>
-    <row r="68" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B68" t="s">
         <v>59</v>
       </c>
+      <c r="C68" s="25" t="s">
+        <v>207</v>
+      </c>
       <c r="J68" s="9"/>
     </row>
-    <row r="69" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B69" t="s">
         <v>59</v>
       </c>
+      <c r="C69" s="22" t="s">
+        <v>140</v>
+      </c>
       <c r="J69" s="9"/>
     </row>
-    <row r="70" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="15" t="s">
         <v>141</v>
       </c>
       <c r="B70" t="s">
         <v>59</v>
       </c>
+      <c r="C70" s="16" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="J70" s="9"/>
     </row>
-    <row r="71" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="15" t="s">
         <v>142</v>
       </c>
       <c r="B71" t="s">
         <v>59</v>
       </c>
+      <c r="C71" s="22" t="s">
+        <v>142</v>
+      </c>
       <c r="J71" s="9"/>
     </row>
-    <row r="72" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="15" t="s">
         <v>143</v>
       </c>
       <c r="B72" t="s">
         <v>59</v>
       </c>
+      <c r="C72" s="25" t="s">
+        <v>110</v>
+      </c>
       <c r="J72" s="9"/>
     </row>
-    <row r="73" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="15" t="s">
         <v>144</v>
       </c>
       <c r="B73" t="s">
         <v>59</v>
       </c>
+      <c r="C73" s="16" t="e">
+        <v>#N/A</v>
+      </c>
       <c r="J73" s="9"/>
     </row>
-    <row r="74" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="15" t="s">
         <v>145</v>
       </c>
       <c r="B74" t="s">
         <v>59</v>
+      </c>
+      <c r="C74" s="16" t="e">
+        <v>#N/A</v>
       </c>
       <c r="J74" s="9"/>
     </row>
@@ -2149,7 +2379,7 @@
       </c>
       <c r="J77" s="12"/>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="5" t="s">
         <v>0</v>
       </c>
@@ -2164,7 +2394,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="5" t="s">
         <v>5</v>
       </c>
@@ -2179,7 +2409,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="5" t="s">
         <v>1</v>
       </c>
@@ -2194,7 +2424,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="5" t="s">
         <v>2</v>
       </c>
@@ -2209,7 +2439,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="5" t="s">
         <v>3</v>
       </c>
@@ -2224,7 +2454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
         <v>8</v>
       </c>
@@ -2239,7 +2469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
         <v>10</v>
       </c>
@@ -2254,7 +2484,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
         <v>19</v>
       </c>
@@ -2271,7 +2501,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>21</v>
       </c>
@@ -2288,7 +2518,7 @@
         <v>1225000</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>23</v>
       </c>
@@ -2305,7 +2535,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>24</v>
       </c>
@@ -2336,7 +2566,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>63</v>
       </c>
@@ -2353,7 +2583,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="5" t="s">
         <v>8</v>
       </c>
@@ -2389,18 +2619,21 @@
         <v>174</v>
       </c>
     </row>
-    <row r="94" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B94" t="s">
         <v>59</v>
       </c>
+      <c r="C94" s="22" t="s">
+        <v>71</v>
+      </c>
       <c r="E94" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>176</v>
       </c>
@@ -2414,18 +2647,21 @@
         <v>80</v>
       </c>
     </row>
-    <row r="96" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B96" t="s">
         <v>59</v>
       </c>
+      <c r="C96" s="22" t="s">
+        <v>36</v>
+      </c>
       <c r="E96" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>36</v>
       </c>
@@ -2476,7 +2712,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>44</v>
       </c>
@@ -2508,7 +2744,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="19" t="s">
         <v>75</v>
       </c>
@@ -2525,7 +2761,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>49</v>
       </c>
@@ -2539,18 +2775,21 @@
         <v>84</v>
       </c>
     </row>
-    <row r="105" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B105" t="s">
         <v>59</v>
       </c>
+      <c r="C105" s="25" t="s">
+        <v>208</v>
+      </c>
       <c r="E105" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>50</v>
       </c>
@@ -2567,23 +2806,29 @@
         <v>51</v>
       </c>
     </row>
-    <row r="107" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B107" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="5" t="s">
         <v>70</v>
       </c>
       <c r="B108" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C108" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" s="23" t="s">
         <v>70</v>
       </c>
@@ -2600,31 +2845,40 @@
         <v>187</v>
       </c>
     </row>
-    <row r="110" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B110" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C110" s="22" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B111" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C111" s="22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B112" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C112" s="16" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>79</v>
       </c>
@@ -2643,7 +2897,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>77</v>
       </c>
@@ -2654,7 +2908,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>78</v>
       </c>
@@ -2704,8 +2958,7 @@
   <autoFilter ref="A1:K121" xr:uid="{A5BB0479-537D-4E53-8542-E88B94FB0215}">
     <filterColumn colId="1">
       <filters>
-        <filter val="Matrix-listing"/>
-        <filter val="Matrix-listing or Matrix-rooms"/>
+        <filter val="Inspection form"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/easyApraisal/Output.xlsx
+++ b/easyApraisal/Output.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://brocku-my.sharepoint.com/personal/zdai_brocku_ca/Documents/TA/Chris/project2/easyApraisal/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1060" documentId="13_ncr:1_{2AA066E3-B413-45EC-9302-AA035445FA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6524E632-DB8F-4558-A88D-7BA734049E38}"/>
+  <xr:revisionPtr revIDLastSave="1127" documentId="13_ncr:1_{2AA066E3-B413-45EC-9302-AA035445FA04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{250E4919-6F37-4C9E-9F33-3C57FCF8A57E}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{21D087D2-6D08-4209-BF04-7B58676F50D0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="1" xr2:uid="{21D087D2-6D08-4209-BF04-7B58676F50D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="rules" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">rules!$A$1:$K$188</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">rules!$A$1:$K$191</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="380">
   <si>
     <t>Street address</t>
   </si>
@@ -235,6 +235,18 @@
     <t>condo</t>
   </si>
   <si>
+    <t>Dwelling description</t>
+  </si>
+  <si>
+    <t>Copy from below (inspection form versions) Building type + Style</t>
+  </si>
+  <si>
+    <t>Combine Building type and Style in that order and add the capitalized word Dwelling to the end so you get results like Detached Bungalow Dwelling or Semidetached 2 Storey Dwelling - use the inspection form and not scraped versions of Building type and Style as this is for the subject</t>
+  </si>
+  <si>
+    <t>Detached 2 Storey Dwelling</t>
+  </si>
+  <si>
     <t>SUBJECT AND ASSIGNMENT</t>
   </si>
   <si>
@@ -260,12 +272,6 @@
   </si>
   <si>
     <t>"</t>
-  </si>
-  <si>
-    <t>//span[@class="formula field d99m16"]</t>
-  </si>
-  <si>
-    <t>Split after dash</t>
   </si>
   <si>
     <t>//span[@class='formula field d100m19']</t>
@@ -296,9 +302,21 @@
     <t>The Regional Municiaplity of Niagara, City of St. Catharines, Lakeshore Neighbourhood</t>
   </si>
   <si>
+    <t>//span[@class="formula field d99m16"]</t>
+  </si>
+  <si>
+    <t>Split after dash</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
     <t>Remove $ and print just the number</t>
   </si>
   <si>
+    <t>Assessed value</t>
+  </si>
+  <si>
     <t>Assessment date</t>
   </si>
   <si>
@@ -462,6 +480,9 @@
   </si>
   <si>
     <t>Electrical</t>
+  </si>
+  <si>
+    <t>Driveway ownership</t>
   </si>
   <si>
     <t>Driveway width</t>
@@ -526,7 +547,10 @@
     <t>97% complete</t>
   </si>
   <si>
-    <t>Design/style</t>
+    <t>Property type (Inspection form)</t>
+  </si>
+  <si>
+    <t>Design/style (Inspection form)</t>
   </si>
   <si>
     <t>Style</t>
@@ -607,9 +631,6 @@
     <t>Bedrooms</t>
   </si>
   <si>
-    <t>in code</t>
-  </si>
-  <si>
     <t>Count the number of bedrooms on above grade floors--note that in addition to "Bedroom - main", "Bedroom - second" and above grade options for bedrooms on extra level floor (e.g., Third), each Bedroom field has a + at the bottom to add more bedrooms on the same floor</t>
   </si>
   <si>
@@ -667,10 +688,7 @@
     <t>Closets</t>
   </si>
   <si>
-    <t>Insultation</t>
-  </si>
-  <si>
-    <t>Insulation AG + Basement insulation</t>
+    <t>Insulation</t>
   </si>
   <si>
     <t>Just list selected options from Insulation AG field and/or Basement insulation field, separated by commas</t>
@@ -682,10 +700,10 @@
     <t>Insulation info source</t>
   </si>
   <si>
+    <t>Always write "Building code" &lt;-- this is not contingent upon scrape or form</t>
+  </si>
+  <si>
     <t>Building code</t>
-  </si>
-  <si>
-    <t>Always write "Building code" &lt;-- this is not contingent upon scrape or form</t>
   </si>
   <si>
     <t>Plumbing</t>
@@ -718,448 +736,6 @@
   </si>
   <si>
     <t>Room allocation table</t>
-  </si>
-  <si>
-    <t>xes</t>
-  </si>
-  <si>
-    <t>//span[text()="AG Fin SF:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>BG Fin SF</t>
-  </si>
-  <si>
-    <t>//span[text()="BG Fin SF:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Basement finish</t>
-  </si>
-  <si>
-    <t>See improvements descriptions email</t>
-  </si>
-  <si>
-    <t>Garages/carports/parking facilities</t>
-  </si>
-  <si>
-    <t>Site improvements</t>
-  </si>
-  <si>
-    <t>See improvements descriptions email--one addition to email instructions: if exterior improvements include a shed, list anything selected in Shed features and Shed electrical panel in brackets after shed appears in list of improvements.</t>
-  </si>
-  <si>
-    <t>Detrimental conditions observed</t>
-  </si>
-  <si>
-    <t>Explain</t>
-  </si>
-  <si>
-    <t>Building improvements</t>
-  </si>
-  <si>
-    <t>HBU</t>
-  </si>
-  <si>
-    <t>Data source</t>
-  </si>
-  <si>
-    <t>Constant</t>
-  </si>
-  <si>
-    <t>MLS</t>
-  </si>
-  <si>
-    <t>This is already above, just copy</t>
-  </si>
-  <si>
-    <t>HBU comment</t>
-  </si>
-  <si>
-    <t>If inspection form field "Property type" = "Single family dwelling OR Acreage OR Townhouse", write "The appraiser has considered the zoning, economic and market trends, expectations of immediate area, the financial and physical attributes of the site and concludes that the highest and best use of this site as if vacant is for a residential single family dwelling as per City Zoning and Official Plan. There is no assemblage."
-If = "Duplex OR Tri-plex OR Fourplex", write "The appraiser has considered the zoning, economic and market trends, expectations of immediate area, the financial and physical attributes of the site and concludes that the highest and best use of this site as if vacant is for a multiresidential as per City Zoning and Official Plan. There is no assemblage."
-If = "Condominium", write "As this appraisal applies to a single unit of a multi-unit complex, the value estimate of the land underlying the building is beyond the scope of this assignment and is not developed in this report. The Highest and Best Use for the site, as though vacant, is therefore not addressed. There is no assemblage."</t>
-  </si>
-  <si>
-    <t>DIRECT COMPARISON</t>
-  </si>
-  <si>
-    <t>Change "Ontario" to ON; new note: when Niagara on the Lake, change to NOTL because long form doesn't fit in box</t>
-  </si>
-  <si>
-    <t>//span[text()="Pending Date:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Convert from mm/dd/yyy format to Jan. 10, 2022</t>
-  </si>
-  <si>
-    <t>Excel autoformatting dates--see notes for format</t>
-  </si>
-  <si>
-    <t>//span[text()="Sold Price:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>//span[text()="DOM/CDOM "]/following::a[1]</t>
-  </si>
-  <si>
-    <t>Listing date</t>
-  </si>
-  <si>
-    <t>//span[text()="List Date:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>//span[text()="Original List Price:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Copy from above but see formatting note</t>
-  </si>
-  <si>
-    <t>Format as "front'xdepth'"</t>
-  </si>
-  <si>
-    <t>40'x100'</t>
-  </si>
-  <si>
-    <t>Lot dimensions Matrix</t>
-  </si>
-  <si>
-    <t>//*[starts-with(text(),'Lot') and contains(text(),'Front (Ft): ')]/following::span[1]   +   //*[starts-with(text(),'Lot') and contains(text(),'Depth (Ft): ')]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Lot area fallback</t>
-  </si>
-  <si>
-    <t>Multiply front x depth from above</t>
-  </si>
-  <si>
-    <t>Building type</t>
-  </si>
-  <si>
-    <t>Semidetached</t>
-  </si>
-  <si>
-    <t>Prop attached (same variable as what is called Building type in inspection form)</t>
-  </si>
-  <si>
-    <t>//span[text()="Prop Attached:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Bungalow</t>
-  </si>
-  <si>
-    <t>//span[text()="Property Type" and @class="fieldName"]/parent::span/parent::div</t>
-  </si>
-  <si>
-    <t>Year built xpath already above but here it is again: //span[text()="Year/Desc/Source: "]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Matrix-rooms</t>
-  </si>
-  <si>
-    <t>Chris will explain--let me know when you get to Rooms and History tabs</t>
-  </si>
-  <si>
-    <t>Matrix-listing or Matrix-rooms</t>
-  </si>
-  <si>
-    <t>//span[contains(text(),"Beds (AG+BG):")]/following::td[1]</t>
-  </si>
-  <si>
-    <t>First number in parentheses</t>
-  </si>
-  <si>
-    <t>Listing page is unreliable because agents count basement and lower baths--have to count on rooms page and Chris can explain; Format as #F#H</t>
-  </si>
-  <si>
-    <t>//span[contains(text(),"Basement:")]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Remove basement so it is just Full, Partial, or None</t>
-  </si>
-  <si>
-    <t>Full</t>
-  </si>
-  <si>
-    <t>//span[text()="Basement Fin: "]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Fully Finished</t>
-  </si>
-  <si>
-    <t>Garage type</t>
-  </si>
-  <si>
-    <t>Double detached garage</t>
-  </si>
-  <si>
-    <t>//span[text()="Garage &amp; Parking: "]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Garage spaces</t>
-  </si>
-  <si>
-    <t>//span[text()="Garage Spaces:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>If Garage = "NA", 1 is single, 2 is double, 3 triple</t>
-  </si>
-  <si>
-    <t>Driveway</t>
-  </si>
-  <si>
-    <t>Driveway width + Driveway material</t>
-  </si>
-  <si>
-    <t>Just combine the selections from each of these fields</t>
-  </si>
-  <si>
-    <t>Double asphalt</t>
-  </si>
-  <si>
-    <t>//span[text()="Garage &amp; Parking: "]/following::td[1]</t>
-  </si>
-  <si>
-    <t>Combine width and material, reformat as "WIDTH MATERIAL" 1.  garage &amp; parking  e.g.single asphalt : Two xpaths and I am not sure if they are reliable because they might just go by place in field such that if an element is missing everything moves over by 1 and we get the wrong thing...perhaps some sort of validation using keywords like single/double/asphalt/concrete/etc. can handle this?...if yes I have the data input sheet and can provide keywords that will work-- Driveway width is //span[text()="Garage &amp; Parking: "]/following::span[3]  Driveway material is //span[text()="Garage &amp; Parking: "]/following::span[5]</t>
-  </si>
-  <si>
-    <t>Setting</t>
-  </si>
-  <si>
-    <t>Backing onto</t>
-  </si>
-  <si>
-    <t>Pool</t>
-  </si>
-  <si>
-    <t>If Aboveground pool or Belowground pool are selected in the Exterior improvements fields or Pool in the Common elements field, write Aboveground pool or Belowground pool or Pool,Exterior improvements front AND Exterior improvements rear AND Common elements</t>
-  </si>
-  <si>
-    <t>Belowground pool</t>
-  </si>
-  <si>
-    <t>//span[text()="Pool Features:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Common elements/amenities</t>
-  </si>
-  <si>
-    <t>//span[text()="Common Element/Condo Amenities:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Condo fees incl.</t>
-  </si>
-  <si>
-    <t>//span[text()="Condo Fees Incl:"]/following::span[1]</t>
-  </si>
-  <si>
-    <t>Price per square foot</t>
-  </si>
-  <si>
-    <t>Divide sold price by AG Fin SF and add $</t>
-  </si>
-  <si>
-    <t>Analysis comments</t>
-  </si>
-  <si>
-    <t>Constant (just leave # where they are in output - these are just markers to remind me to fill in details that don't come from inspection form/scrape</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparable sales examined offered good overall comparability with the subject and were chosen from similar style properties that sold recently in the subject's market area. They are similarly improved in terms of design, utility, quality of improvements and accommodation. To equate the subject property to the sales presented, an adjustment process has been adopted. Comparables have been adjusted for factors such as differences in quality and condition of interior improvements, liveable floor area (LFA), bathroom facilities, and parking facilities, where applicable. Due to lack of similar sale comparables, an expanded area and sale time search have been conducted. A time adjustment as per HPI has been applied.
-Comparable 1 is a #, # sale. The property’s interior condition is # to subject. Property has
-Comparable 2 is a #, # sale. The property’s interior condition is # to subject. Property has
-Comparable 3 is a #, # sale. The property’s interior condition is # to subject. Property has
-No locational adjustment has been made these properties have similar neighbourhood amenities. The comparable LFA has a range is # SqFt to # SqFt. The unadjusted values ranged from $ # to $ # and the adjusted values ranged from $ # to $ # . Given the subject’s size, location, and condition, equal weight is accorded to the comparables after adjustments for variances identified. According to consideration of this appraisal, the subject's final estimated value of $ # is considered to be supported.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Comparable sales examined offered good overall comparability with the subject and were chosen from similar style properties that sold recently in the subject's market area. They are similarly improved in terms of design, utility, quality of improvements and accommodation. To equate the subject property to the sales presented, an adjustment process has been adopted. Comparables have been adjusted for factors such as differences in quality and condition of interior improvements, liveable floor area (LFA), bathroom facilities, and parking facilities, where applicable. Due to lack of similar sale comparables, an expanded area and sale time search have been conducted. A time adjustment as per HPI has been applied.
-Comparable 1 is a #, # sale. The property’s interior condition is # to subject. Property has
-Comparable 2 is a #, # sale. The property’s interior condition is # to subject. Property has
-Comparable 3 is a #, # sale. The property’s interior condition is # to subject. Property has
-No locational adjustment has been made these properties have similar neighbourhood amenities. The comparable LFA has a range is # SqFt to # SqFt. The unadjusted values ranged from $ # to $ # and the adjusted values ranged from $ # to $ # . Given the subject’s size, location, and condition, equal weight is accorded to the comparables after adjustments for variances identified. According to consideration of this appraisal, the subject's final estimated value of $ # is considered to be supported.
-Comparable 1 is a #, # sale. The property’s interior condition is # to subject. Property has
-Comparable 2 is a #, # sale. The property’s interior condition is # to subject. Property has
-Comparable 3 is a #, # sale. The property’s interior condition is # to subject. Property has
-No locational adjustment has been made these properties have similar neighbourhood amenities. The comparable LFA has a range is # SqFt to # SqFt. The unadjusted values ranged from $ # to $ # and the adjusted values ranged from $ # to $ # . Given the subject’s size, location, and condition, equal weight is accorded to the comparables after adjustments for variances identified. According to consideration of this appraisal, the subject's final estimated value of $ # is considered to be supported.
-</t>
-  </si>
-  <si>
-    <t>HISTORY</t>
-  </si>
-  <si>
-    <t>Sale history</t>
-  </si>
-  <si>
-    <t>According to GeoWarehouse, the subject was transferred on DATE1 for a price of $PRICE1; on DATE2 for a price of $PRICE2.</t>
-  </si>
-  <si>
-    <t>Sold within 3 years</t>
-  </si>
-  <si>
-    <t>Listing history</t>
-  </si>
-  <si>
-    <t>Matrix-history</t>
-  </si>
-  <si>
-    <t>I have several xpaths but this will require multiple xpaths, splitting, and reformatting--discuss when we reach this</t>
-  </si>
-  <si>
-    <t>The subject was listed on DATE1 for $PRICE1 and the listing expired on DATE2 (40159781); on DATE3 for $PRICE3 and sold on DATE4 for $PRICE4 (differentMLSid).</t>
-  </si>
-  <si>
-    <t>Options are Closed ("and sold on DATE for $PRICE;"), Pending ("and received a pending offer of $PRICE on DATE"), Expired ("and expired on DATE";), and Cancelled ("and was cancelled on DATE")</t>
-  </si>
-  <si>
-    <t>Listed within 1 year</t>
-  </si>
-  <si>
-    <t>Currently listed</t>
-  </si>
-  <si>
-    <t>EXPOSURE TIME</t>
-  </si>
-  <si>
-    <t>Exposure time</t>
-  </si>
-  <si>
-    <t>Due to the uncertainty in worldwide Covid-19 Pandemic, it is recommended that the lender/lending institution exercise caution and ensure that the company lending guidelines are followed as we are assuming that market conditions remain stable. If not true, we have the option to revisit our final estimate of value. All comparable sales used in this report, as a basis for my opinion of value, were assumed to have been exposed to their relevant markets for a sufficient length of time prior to sale and that adequate marketing efforts were undertaken to affect said sales. A reasonable market exposure time, based on a current market analysis, comparable sales and MLS statistics, is within 0-60 days.</t>
-  </si>
-  <si>
-    <t>Just write this statement here. I will edit in script when this needs to be updated but it is not contingent upon scrape or inspection form</t>
-  </si>
-  <si>
-    <t>RECONCILIATION</t>
-  </si>
-  <si>
-    <t>THE LOGIC OF TWO DATES IN THIS AND THE ROW BELOW IS TO HAVE DATE OF INSPECTION AND DATE REPORT IS SIGNED. This one is the date field in the inspection form. The next one is the date the script is run as that is when I will be writing the reports. Format dates like this: Feb. 11, 2022</t>
-  </si>
-  <si>
-    <t>Feb. 11, 2022</t>
-  </si>
-  <si>
-    <t>Completed on</t>
-  </si>
-  <si>
-    <t>Script?</t>
-  </si>
-  <si>
-    <t>This is just the date the script is run</t>
-  </si>
-  <si>
-    <t>Feb. 15, 2022</t>
-  </si>
-  <si>
-    <t>CERTIFICATION</t>
-  </si>
-  <si>
-    <t>Member number</t>
-  </si>
-  <si>
-    <t>Member number 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date output is generated </t>
-  </si>
-  <si>
-    <t>If Type of inspection = Exterior, write "Exterior inspection only"; if anything else, leave blank</t>
-  </si>
-  <si>
-    <t>Exterior inspection only</t>
-  </si>
-  <si>
-    <t>COST</t>
-  </si>
-  <si>
-    <t>Exterior improvements front</t>
-  </si>
-  <si>
-    <t>Simply list all checked, but exclude the following: Garden, Gardens, Mature tree, Mature trees, Shed, Shrubs, Sodded lawn</t>
-  </si>
-  <si>
-    <t>Exterior improvements rear</t>
-  </si>
-  <si>
-    <t>Effective age/economic life</t>
-  </si>
-  <si>
-    <t>Copy effective age from above or Effective age is in inspection form and economic life is always 60</t>
-  </si>
-  <si>
-    <t>Effective age/60</t>
-  </si>
-  <si>
-    <t>15/60</t>
-  </si>
-  <si>
-    <t>Effictive age/economic life %</t>
-  </si>
-  <si>
-    <t>Row above as percent</t>
-  </si>
-  <si>
-    <t>Divide effective age by 60 and multiply by 100 but do not add % sign (e.g., if effective age is 15, then 15/60(100) = 25</t>
-  </si>
-  <si>
-    <t>RENT</t>
-  </si>
-  <si>
-    <t>Rent history</t>
-  </si>
-  <si>
-    <t>Same logic as sales history but this is where to put lease history--see email I sent on Wed., Mar. 2, 2022 for instructions re. distinguishing lease and sale history in history tab</t>
-  </si>
-  <si>
-    <t>If none, write: A search of MLS showed no recent lease listings for the subject.</t>
-  </si>
-  <si>
-    <t>A search of MLS showed no recent lease listings for the subject.</t>
-  </si>
-  <si>
-    <t>Rent comments</t>
-  </si>
-  <si>
-    <t>Variable is date script is run - use 1 year prior to this date for range with same date formatting as every other date (i.e., Feb. 22, 2022) - I made this yellow because this date is already in the output sheet above so you can copy from there if that's easiest</t>
-  </si>
-  <si>
-    <t>A search was conducted for the period of DATESCRIPTRUNS-1YEAR to DATESCRIPTRUNS on MLS. Average ## days on market with a median of ## days. In the past one year, the area has reasonable supply of rental stock for comparable units with a per unit rental range between $ ### to $ ### .</t>
-  </si>
-  <si>
-    <t>A search was conducted for the period of Feb. 22, 2021 to Feb. 22, 2022 on MLS. Average ## days on market with a median of ## days. In the past one year, the area has reasonable supply of rental stock for comparable units with a per unit rental range between $ ### to $ ### .</t>
-  </si>
-  <si>
-    <t>Nieghbourhood</t>
-  </si>
-  <si>
-    <t>Copy from above for subject/scrape for rent comps - will show you rent listings examples when you get here</t>
-  </si>
-  <si>
-    <t>Glenridge</t>
-  </si>
-  <si>
-    <t>Listing rent</t>
-  </si>
-  <si>
-    <t>Scrape from matrix-rent listing</t>
-  </si>
-  <si>
-    <t>Lease date</t>
-  </si>
-  <si>
-    <t>Pending Date:</t>
-  </si>
-  <si>
-    <t>Rent comparison comment</t>
-  </si>
-  <si>
-    <t>The days on market for comparables 1-3 ranged from # days to # days, indicating that there is stable demand in the area for rentals of similar type of property.
-Comparable 1 is a #, # lease and is similar in condition and size. Property has # bedrooms and # baths like subject.
-Comparable 2 1 is a #, # lease and is similar in condition and size. Property has # bedrooms and # baths like subject.
-Comparable 3 1 is a #, # lease and is similar in condition and size. Property has # bedrooms and # baths like subject.</t>
-  </si>
-  <si>
-    <t>Rent reconciliation</t>
-  </si>
-  <si>
-    <t>Given the subject's size and condition, the estimated rental range of $ #  to $ #, excluding utilities, is reasonable and supportable if the entire property is rented.</t>
   </si>
   <si>
     <t xml:space="preserve">The improvements descriptions are split into 1. Basement finish, 2. Garages/Carports/Parking, 3. Site improvements, and 4. Building. The information for these comes from the inspection form, and I am hoping you can also have the Python script 5. count the rooms of each type on each floor.
@@ -1197,22 +773,473 @@
 </t>
   </si>
   <si>
-    <t>Dwelling description</t>
-  </si>
-  <si>
-    <t>Detached 2 Storey Dwelling</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Driveway ownership</t>
-  </si>
-  <si>
-    <t>Copy from below (inspection form versions) Building type + Style</t>
-  </si>
-  <si>
-    <t>Combine Building type and Style in that order and add the capitalized word Dwelling to the end so you get results like Detached Bungalow Dwelling or Semidetached 2 Storey Dwelling - use the inspection form and not scraped versions of Building type and Style as this is for the subject</t>
+    <t>xes</t>
+  </si>
+  <si>
+    <t>AG Fin SF</t>
+  </si>
+  <si>
+    <t>//span[text()="AG Fin SF:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>BG Fin SF</t>
+  </si>
+  <si>
+    <t>//span[text()="BG Fin SF:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Basement finish</t>
+  </si>
+  <si>
+    <t>See improvements descriptions email</t>
+  </si>
+  <si>
+    <t>Garages/carports/parking facilities</t>
+  </si>
+  <si>
+    <t>Site improvements</t>
+  </si>
+  <si>
+    <t>See improvements descriptions email--one addition to email instructions: if exterior improvements include a shed, list anything selected in Shed features and Shed electrical panel in brackets after shed appears in list of improvements.</t>
+  </si>
+  <si>
+    <t>Detrimental conditions observed</t>
+  </si>
+  <si>
+    <t>Explain</t>
+  </si>
+  <si>
+    <t>Building improvements</t>
+  </si>
+  <si>
+    <t>HBU</t>
+  </si>
+  <si>
+    <t>Data source</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>MLS</t>
+  </si>
+  <si>
+    <t>This is already above, just copy</t>
+  </si>
+  <si>
+    <t>HBU comment</t>
+  </si>
+  <si>
+    <t>If inspection form field "Property type" = "Single family dwelling OR Acreage OR Townhouse", write "The appraiser has considered the zoning, economic and market trends, expectations of immediate area, the financial and physical attributes of the site and concludes that the highest and best use of this site as if vacant is for a residential single family dwelling as per City Zoning and Official Plan. There is no assemblage."
+If = "Duplex OR Tri-plex OR Fourplex", write "The appraiser has considered the zoning, economic and market trends, expectations of immediate area, the financial and physical attributes of the site and concludes that the highest and best use of this site as if vacant is for a multiresidential as per City Zoning and Official Plan. There is no assemblage."
+If = "Condominium", write "As this appraisal applies to a single unit of a multi-unit complex, the value estimate of the land underlying the building is beyond the scope of this assignment and is not developed in this report. The Highest and Best Use for the site, as though vacant, is therefore not addressed. There is no assemblage."</t>
+  </si>
+  <si>
+    <t>DIRECT COMPARISON</t>
+  </si>
+  <si>
+    <t>Change "Ontario" to ON; new note: when Niagara on the Lake, change to NOTL because long form doesn't fit in box</t>
+  </si>
+  <si>
+    <t>//span[text()="Pending Date:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Convert from mm/dd/yyy format to Jan. 10, 2022</t>
+  </si>
+  <si>
+    <t>Excel autoformatting dates--see notes for format</t>
+  </si>
+  <si>
+    <t>//span[text()="Sold Price:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>//span[text()="DOM/CDOM "]/following::a[1]</t>
+  </si>
+  <si>
+    <t>Listing date</t>
+  </si>
+  <si>
+    <t>//span[text()="List Date:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>//span[text()="Original List Price:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Copy from above but see formatting note</t>
+  </si>
+  <si>
+    <t>Format as "front'xdepth'"</t>
+  </si>
+  <si>
+    <t>40'x100'</t>
+  </si>
+  <si>
+    <t>Lot dimensions Matrix</t>
+  </si>
+  <si>
+    <t>//*[starts-with(text(),'Lot') and contains(text(),'Front (Ft): ')]/following::span[1]   +   //*[starts-with(text(),'Lot') and contains(text(),'Depth (Ft): ')]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Lot area fallback</t>
+  </si>
+  <si>
+    <t>Multiply front x depth from above</t>
+  </si>
+  <si>
+    <t>Building type</t>
+  </si>
+  <si>
+    <t>Semidetached</t>
+  </si>
+  <si>
+    <t>Prop attached (same variable as what is called Building type in inspection form)</t>
+  </si>
+  <si>
+    <t>//span[text()="Prop Attached:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Bungalow</t>
+  </si>
+  <si>
+    <t>//span[text()="Property Type" and @class="fieldName"]/parent::span/parent::div</t>
+  </si>
+  <si>
+    <t>Year built xpath already above but here it is again: //span[text()="Year/Desc/Source: "]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Matrix-rooms</t>
+  </si>
+  <si>
+    <t>Chris will explain--let me know when you get to Rooms and History tabs</t>
+  </si>
+  <si>
+    <t>Matrix-listing or Matrix-rooms</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),"Beds (AG+BG):")]/following::td[1]</t>
+  </si>
+  <si>
+    <t>First number in parentheses</t>
+  </si>
+  <si>
+    <t>Listing page is unreliable because agents count basement and lower baths--have to count on rooms page and Chris can explain; Format as #F#H</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),"Basement:")]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Remove basement so it is just Full, Partial, or None</t>
+  </si>
+  <si>
+    <t>Full</t>
+  </si>
+  <si>
+    <t>//span[text()="Basement Fin: "]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Fully Finished</t>
+  </si>
+  <si>
+    <t>Garage(Inspect)</t>
+  </si>
+  <si>
+    <t>Garage type</t>
+  </si>
+  <si>
+    <t>Double detached garage</t>
+  </si>
+  <si>
+    <t>//span[text()="Garage &amp; Parking: "]/following::td[1]</t>
+  </si>
+  <si>
+    <t>Garage spaces</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),"Garage Spaces:")]/following::span[1]</t>
+  </si>
+  <si>
+    <t>If Garage = "NA", 1 is single, 2 is double, 3 triple</t>
+  </si>
+  <si>
+    <t>Parking spaces</t>
+  </si>
+  <si>
+    <t>//span[contains(text(),"Parking Spaces:")]/following::span[1]</t>
+  </si>
+  <si>
+    <t>number + A/G or B/G</t>
+  </si>
+  <si>
+    <t>Driveway(Inspection Form)</t>
+  </si>
+  <si>
+    <t>Double asphalt</t>
+  </si>
+  <si>
+    <t>Driveway</t>
+  </si>
+  <si>
+    <t>Combine width and material, reformat as "WIDTH MATERIAL" 1.  garage &amp; parking  e.g.single asphalt : Two xpaths and I am not sure if they are reliable because they might just go by place in field such that if an element is missing everything moves over by 1 and we get the wrong thing...perhaps some sort of validation using keywords like single/double/asphalt/concrete/etc. can handle this?...if yes I have the data input sheet and can provide keywords that will work-- Driveway width is //span[text()="Garage &amp; Parking: "]/following::span[3]  Driveway material is //span[text()="Garage &amp; Parking: "]/following::span[5]</t>
+  </si>
+  <si>
+    <t>Setting</t>
+  </si>
+  <si>
+    <t>Backing onto</t>
+  </si>
+  <si>
+    <t>Pool</t>
+  </si>
+  <si>
+    <t>If Aboveground pool or Belowground pool are selected in the Exterior improvements fields or Pool in the Common elements field, write Aboveground pool or Belowground pool or Pool,Exterior improvements front AND Exterior improvements rear AND Common elements</t>
+  </si>
+  <si>
+    <t>Belowground pool</t>
+  </si>
+  <si>
+    <t>//span[text()="Pool Features:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Common elements/amenities</t>
+  </si>
+  <si>
+    <t>//span[text()="Common Element/Condo Amenities:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Condo fees incl.</t>
+  </si>
+  <si>
+    <t>//span[text()="Condo Fees Incl:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Price per square foot</t>
+  </si>
+  <si>
+    <t>Divide sold price by AG Fin SF and add $</t>
+  </si>
+  <si>
+    <t>Analysis comments</t>
+  </si>
+  <si>
+    <t>Constant (just leave # where they are in output - these are just markers to remind me to fill in details that don't come from inspection form/scrape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparable sales examined offered good overall comparability with the subject and were chosen from similar style properties that sold recently in the subject's market area. They are similarly improved in terms of design, utility, quality of improvements and accommodation. To equate the subject property to the sales presented, an adjustment process has been adopted. Comparables have been adjusted for factors such as differences in quality and condition of interior improvements, liveable floor area (LFA), bathroom facilities, and parking facilities, where applicable. Due to lack of similar sale comparables, an expanded area and sale time search have been conducted. A time adjustment as per HPI has been applied.
+Comparable 1 is a #, # sale. The property’s interior condition is # to subject. Property has
+Comparable 2 is a #, # sale. The property’s interior condition is # to subject. Property has
+Comparable 3 is a #, # sale. The property’s interior condition is # to subject. Property has
+No locational adjustment has been made these properties have similar neighbourhood amenities. The comparable LFA has a range is # SqFt to # SqFt. The unadjusted values ranged from $ # to $ # and the adjusted values ranged from $ # to $ # . Given the subject’s size, location, and condition, equal weight is accorded to the comparables after adjustments for variances identified. According to consideration of this appraisal, the subject's final estimated value of $ # is considered to be supported.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparable sales examined offered good overall comparability with the subject and were chosen from similar style properties that sold recently in the subject's market area. They are similarly improved in terms of design, utility, quality of improvements and accommodation. To equate the subject property to the sales presented, an adjustment process has been adopted. Comparables have been adjusted for factors such as differences in quality and condition of interior improvements, liveable floor area (LFA), bathroom facilities, and parking facilities, where applicable. Due to lack of similar sale comparables, an expanded area and sale time search have been conducted. A time adjustment as per HPI has been applied.
+Comparable 1 is a #, # sale. The property’s interior condition is # to subject. Property has
+Comparable 2 is a #, # sale. The property’s interior condition is # to subject. Property has
+Comparable 3 is a #, # sale. The property’s interior condition is # to subject. Property has
+No locational adjustment has been made these properties have similar neighbourhood amenities. The comparable LFA has a range is # SqFt to # SqFt. The unadjusted values ranged from $ # to $ # and the adjusted values ranged from $ # to $ # . Given the subject’s size, location, and condition, equal weight is accorded to the comparables after adjustments for variances identified. According to consideration of this appraisal, the subject's final estimated value of $ # is considered to be supported.
+Comparable 1 is a #, # sale. The property’s interior condition is # to subject. Property has
+Comparable 2 is a #, # sale. The property’s interior condition is # to subject. Property has
+Comparable 3 is a #, # sale. The property’s interior condition is # to subject. Property has
+No locational adjustment has been made these properties have similar neighbourhood amenities. The comparable LFA has a range is # SqFt to # SqFt. The unadjusted values ranged from $ # to $ # and the adjusted values ranged from $ # to $ # . Given the subject’s size, location, and condition, equal weight is accorded to the comparables after adjustments for variances identified. According to consideration of this appraisal, the subject's final estimated value of $ # is considered to be supported.
+</t>
+  </si>
+  <si>
+    <t>HISTORY</t>
+  </si>
+  <si>
+    <t>Sale history</t>
+  </si>
+  <si>
+    <t>According to GeoWarehouse, the subject was transferred on DATE1 for a price of $PRICE1; on DATE2 for a price of $PRICE2.</t>
+  </si>
+  <si>
+    <t>Sold within 3 years</t>
+  </si>
+  <si>
+    <t>Listing history</t>
+  </si>
+  <si>
+    <t>Matrix-history</t>
+  </si>
+  <si>
+    <t>I have several xpaths but this will require multiple xpaths, splitting, and reformatting--discuss when we reach this</t>
+  </si>
+  <si>
+    <t>The subject was listed on DATE1 for $PRICE1 and the listing expired on DATE2 (40159781); on DATE3 for $PRICE3 and sold on DATE4 for $PRICE4 (differentMLSid).</t>
+  </si>
+  <si>
+    <t>Options are Closed ("and sold on DATE for $PRICE;"), Pending ("and received a pending offer of $PRICE on DATE"), Expired ("and expired on DATE";), and Cancelled ("and was cancelled on DATE")</t>
+  </si>
+  <si>
+    <t>Listed within 1 year</t>
+  </si>
+  <si>
+    <t>Currently listed</t>
+  </si>
+  <si>
+    <t>EXPOSURE TIME</t>
+  </si>
+  <si>
+    <t>Exposure time</t>
+  </si>
+  <si>
+    <t>Due to the uncertainty in worldwide Covid-19 Pandemic, it is recommended that the lender/lending institution exercise caution and ensure that the company lending guidelines are followed as we are assuming that market conditions remain stable. If not true, we have the option to revisit our final estimate of value. All comparable sales used in this report, as a basis for my opinion of value, were assumed to have been exposed to their relevant markets for a sufficient length of time prior to sale and that adequate marketing efforts were undertaken to affect said sales. A reasonable market exposure time, based on a current market analysis, comparable sales and MLS statistics, is within 0-60 days.</t>
+  </si>
+  <si>
+    <t>Just write this statement here. I will edit in script when this needs to be updated but it is not contingent upon scrape or inspection form</t>
+  </si>
+  <si>
+    <t>RECONCILIATION</t>
+  </si>
+  <si>
+    <t>THE LOGIC OF TWO DATES IN THIS AND THE ROW BELOW IS TO HAVE DATE OF INSPECTION AND DATE REPORT IS SIGNED. This one is the date field in the inspection form. The next one is the date the script is run as that is when I will be writing the reports. Format dates like this: Feb. 11, 2022</t>
+  </si>
+  <si>
+    <t>Feb. 11, 2022</t>
+  </si>
+  <si>
+    <t>Completed on</t>
+  </si>
+  <si>
+    <t>Script?</t>
+  </si>
+  <si>
+    <t>This is just the date the script is run</t>
+  </si>
+  <si>
+    <t>Feb. 15, 2022</t>
+  </si>
+  <si>
+    <t>CERTIFICATION</t>
+  </si>
+  <si>
+    <t>Member number</t>
+  </si>
+  <si>
+    <t>Member number 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date output is generated </t>
+  </si>
+  <si>
+    <t>If Type of inspection = Exterior, write "Exterior inspection only"; if anything else, leave blank</t>
+  </si>
+  <si>
+    <t>Exterior inspection only</t>
+  </si>
+  <si>
+    <t>COST</t>
+  </si>
+  <si>
+    <t>//span[text()="Garage &amp; Parking: "]/following::span[1]</t>
+  </si>
+  <si>
+    <t>//span[text()="Garage Spaces:"]/following::span[1]</t>
+  </si>
+  <si>
+    <t>Exterior improvements front</t>
+  </si>
+  <si>
+    <t>Simply list all checked, but exclude the following: Garden, Gardens, Mature tree, Mature trees, Shed, Shrubs, Sodded lawn</t>
+  </si>
+  <si>
+    <t>Exterior improvements rear</t>
+  </si>
+  <si>
+    <t>Effective age/economic life</t>
+  </si>
+  <si>
+    <t>Copy effective age from above or Effective age is in inspection form and economic life is always 60</t>
+  </si>
+  <si>
+    <t>Effective age/60</t>
+  </si>
+  <si>
+    <t>15/60</t>
+  </si>
+  <si>
+    <t>Effictive age/economic life %</t>
+  </si>
+  <si>
+    <t>Row above as percent</t>
+  </si>
+  <si>
+    <t>Divide effective age by 60 and multiply by 100 but do not add % sign (e.g., if effective age is 15, then 15/60(100) = 25</t>
+  </si>
+  <si>
+    <t>RENT</t>
+  </si>
+  <si>
+    <t>Rent history</t>
+  </si>
+  <si>
+    <t>Same logic as sales history but this is where to put lease history--see email I sent on Wed., Mar. 2, 2022 for instructions re. distinguishing lease and sale history in history tab</t>
+  </si>
+  <si>
+    <t>If none, write: A search of MLS showed no recent lease listings for the subject.</t>
+  </si>
+  <si>
+    <t>A search of MLS showed no recent lease listings for the subject.</t>
+  </si>
+  <si>
+    <t>Rent comments</t>
+  </si>
+  <si>
+    <t>Variable is date script is run - use 1 year prior to this date for range with same date formatting as every other date (i.e., Feb. 22, 2022) - I made this yellow because this date is already in the output sheet above so you can copy from there if that's easiest</t>
+  </si>
+  <si>
+    <t>A search was conducted for the period of DATESCRIPTRUNS-1YEAR to DATESCRIPTRUNS on MLS. Average ## days on market with a median of ## days. In the past one year, the area has reasonable supply of rental stock for comparable units with a per unit rental range between $ ### to $ ### .</t>
+  </si>
+  <si>
+    <t>A search was conducted for the period of Feb. 22, 2021 to Feb. 22, 2022 on MLS. Average ## days on market with a median of ## days. In the past one year, the area has reasonable supply of rental stock for comparable units with a per unit rental range between $ ### to $ ### .</t>
+  </si>
+  <si>
+    <t>Nieghbourhood</t>
+  </si>
+  <si>
+    <t>Copy from above for subject/scrape for rent comps - will show you rent listings examples when you get here</t>
+  </si>
+  <si>
+    <t>Glenridge</t>
+  </si>
+  <si>
+    <t>Listing rent</t>
+  </si>
+  <si>
+    <t>Scrape from matrix-rent listing</t>
+  </si>
+  <si>
+    <t>Lease date</t>
+  </si>
+  <si>
+    <t>Pending Date:</t>
+  </si>
+  <si>
+    <t>Rent comparison comment</t>
+  </si>
+  <si>
+    <t>The days on market for comparables 1-3 ranged from # days to # days, indicating that there is stable demand in the area for rentals of similar type of property.
+Comparable 1 is a #, # lease and is similar in condition and size. Property has # bedrooms and # baths like subject.
+Comparable 2 1 is a #, # lease and is similar in condition and size. Property has # bedrooms and # baths like subject.
+Comparable 3 1 is a #, # lease and is similar in condition and size. Property has # bedrooms and # baths like subject.</t>
+  </si>
+  <si>
+    <t>Rent reconciliation</t>
+  </si>
+  <si>
+    <t>Given the subject's size and condition, the estimated rental range of $ #  to $ #, excluding utilities, is reasonable and supportable if the entire property is rented.</t>
+  </si>
+  <si>
+    <t>CompareStates</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>Lot dimensions short GW (formatted)</t>
+  </si>
+  <si>
+    <t>Just combine the selections from each of these fields, Driveway width + Driveway material</t>
   </si>
 </sst>
 </file>
@@ -1223,7 +1250,7 @@
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0;[Red]\-&quot;$&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1310,8 +1337,13 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1366,6 +1398,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1395,7 +1433,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1507,13 +1545,15 @@
     <xf numFmtId="14" fontId="11" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1973,11 +2013,11 @@
       <c r="C5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
       <c r="G5" t="s">
         <v>32</v>
       </c>
@@ -2106,18 +2146,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BB0479-537D-4E53-8542-E88B94FB0215}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:K190"/>
+  <dimension ref="A1:K192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView tabSelected="1" topLeftCell="C109" workbookViewId="0">
+      <selection activeCell="D137" sqref="D137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="2" max="2" width="23.5703125" customWidth="1"/>
-    <col min="3" max="3" width="84" customWidth="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1"/>
+    <col min="3" max="3" width="111.5703125" customWidth="1"/>
     <col min="4" max="4" width="134.28515625" customWidth="1"/>
     <col min="5" max="5" width="23.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="26.85546875" customWidth="1"/>
@@ -2148,25 +2187,25 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>365</v>
+        <v>65</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>369</v>
+        <v>66</v>
       </c>
       <c r="D2" t="s">
-        <v>370</v>
+        <v>67</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>68</v>
       </c>
       <c r="J2" s="6"/>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J3" s="6"/>
     </row>
-    <row r="4" spans="1:11" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J4" s="8"/>
     </row>
@@ -2181,26 +2220,26 @@
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:11" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J6" s="6"/>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>0</v>
       </c>
@@ -2208,10 +2247,10 @@
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="E7" t="s">
         <v>47</v>
@@ -2222,7 +2261,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11" t="s">
@@ -2232,7 +2271,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
         <v>3</v>
       </c>
@@ -2240,13 +2279,13 @@
         <v>23</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>4</v>
       </c>
@@ -2254,13 +2293,13 @@
         <v>23</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>6</v>
       </c>
@@ -2268,7 +2307,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>33</v>
@@ -2277,38 +2316,38 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="42" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D12" s="43" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="J12" s="6"/>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="J13" s="6"/>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>5</v>
       </c>
@@ -2316,458 +2355,454 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="E14" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
-        <v>367</v>
+        <v>89</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C15" s="11"/>
       <c r="D15" s="11" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E15" s="5">
         <v>225000</v>
       </c>
       <c r="J15" s="6"/>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="11" t="s">
-        <v>86</v>
+    <row r="16" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="E16" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="6"/>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" t="s">
-        <v>91</v>
-      </c>
-      <c r="E17" s="13">
+        <v>80</v>
+      </c>
+      <c r="E16" s="49"/>
+      <c r="J16" s="50"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" t="s">
+        <v>94</v>
+      </c>
+      <c r="J17" s="6"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" s="13">
         <v>2052.6</v>
-      </c>
-      <c r="J17" s="6"/>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18">
-        <v>2022</v>
       </c>
       <c r="J18" s="6"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="D19" s="11"/>
-      <c r="E19" t="s">
-        <v>95</v>
+        <v>80</v>
+      </c>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19">
+        <v>2022</v>
       </c>
       <c r="J19" s="6"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="J20" s="6"/>
     </row>
-    <row r="21" spans="1:10" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B22" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" t="s">
-        <v>100</v>
-      </c>
-      <c r="J22" s="6"/>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21" s="11"/>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="J21" s="6"/>
+    </row>
+    <row r="22" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="D23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>104</v>
+      <c r="C23" t="s">
+        <v>106</v>
       </c>
       <c r="J23" s="6"/>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" t="s">
-        <v>106</v>
+      <c r="C24" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>110</v>
       </c>
       <c r="J24" s="6"/>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>108</v>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>112</v>
+      </c>
+      <c r="J25" s="6"/>
+    </row>
+    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B27" t="s">
         <v>25</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="J29" s="8"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B30" t="s">
-        <v>25</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J30" s="6"/>
+      <c r="B29" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" s="8"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
         <v>25</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B32" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="B33" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="15" t="s">
-        <v>115</v>
+      <c r="C33" s="11" t="s">
+        <v>119</v>
       </c>
       <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B35" t="s">
         <v>25</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="J35" s="6"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="J36" s="6"/>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>123</v>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="B37" t="s">
+        <v>25</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>127</v>
       </c>
       <c r="J37" s="6"/>
     </row>
-    <row r="38" spans="1:10" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="J38" s="8"/>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11" t="s">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="J38" s="6"/>
+    </row>
+    <row r="39" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="11"/>
-      <c r="D41" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E41" t="s">
-        <v>128</v>
-      </c>
-      <c r="F41" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C42" s="10"/>
-      <c r="D42" t="s">
-        <v>131</v>
+      <c r="B42" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
-      </c>
-      <c r="C43" s="16" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B44" t="s">
-        <v>23</v>
-      </c>
-      <c r="C44" t="s">
-        <v>134</v>
+        <v>25</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C45" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="J45" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B46" t="s">
         <v>25</v>
       </c>
-      <c r="C46" s="16" t="s">
-        <v>138</v>
+      <c r="C46" s="15" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>143</v>
       </c>
       <c r="J46" s="6"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="B47" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="11" t="s">
-        <v>139</v>
+      <c r="C47" s="16" t="s">
+        <v>144</v>
       </c>
       <c r="J47" s="6"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
         <v>25</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J48" s="6"/>
     </row>
-    <row r="49" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
-        <v>368</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49" s="52" t="s">
-        <v>368</v>
-      </c>
-      <c r="J49" s="50"/>
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" s="6"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A50" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
+      <c r="A50" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="J50" s="6"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51" s="21" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="B51" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
@@ -2775,13 +2810,13 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" s="21" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B52" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="D52" s="20"/>
       <c r="E52" s="20"/>
@@ -2789,13 +2824,13 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" s="21" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="B53" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="D53" s="20"/>
       <c r="E53" s="20"/>
@@ -2803,13 +2838,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" s="21" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="21" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D54" s="20"/>
       <c r="E54" s="20"/>
@@ -2817,13 +2852,13 @@
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55" s="21" t="s">
-        <v>146</v>
-      </c>
-      <c r="B55" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="B55" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C55" s="21" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="D55" s="20"/>
       <c r="E55" s="20"/>
@@ -2831,159 +2866,159 @@
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56" s="21" t="s">
-        <v>147</v>
-      </c>
-      <c r="B56" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C56" s="21" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="D56" s="20"/>
       <c r="E56" s="20"/>
       <c r="J56" s="6"/>
     </row>
-    <row r="57" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57" s="21" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="B57" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="27" t="s">
-        <v>150</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D57" s="20"/>
       <c r="E57" s="20"/>
       <c r="J57" s="6"/>
     </row>
-    <row r="58" spans="1:10" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="B58" s="24"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="J58" s="8"/>
-    </row>
-    <row r="59" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B59" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D59" s="20"/>
-      <c r="E59" s="20"/>
-      <c r="J59" s="6"/>
+    <row r="58" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A58" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58" s="21"/>
+      <c r="D58" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="E58" s="20"/>
+      <c r="J58" s="6"/>
+    </row>
+    <row r="59" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="J59" s="8"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B60" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C60" s="21" t="s">
-        <v>154</v>
+        <v>159</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="20" t="s">
+        <v>160</v>
       </c>
       <c r="D60" s="20"/>
-      <c r="E60" s="20">
+      <c r="E60" s="20"/>
+      <c r="J60" s="6"/>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20">
         <v>15</v>
-      </c>
-      <c r="J60" s="6"/>
-    </row>
-    <row r="61" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B61" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C61" s="21"/>
-      <c r="D61" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="E61" s="20">
-        <v>60</v>
       </c>
       <c r="J61" s="6"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B62" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C62" s="21" t="s">
-        <v>158</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" s="21"/>
       <c r="D62" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>160</v>
+        <v>164</v>
+      </c>
+      <c r="E62" s="20">
+        <v>60</v>
       </c>
       <c r="J62" s="6"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C63" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="D63" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E63" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="J63" s="6"/>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="B64" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C64" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="B63" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C63" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="D63" s="20"/>
-      <c r="E63" s="20"/>
-      <c r="J63" s="6"/>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A64" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B64" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>163</v>
-      </c>
+      <c r="D64" s="20"/>
       <c r="E64" s="20"/>
       <c r="J64" s="6"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="B65" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C65" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="D65" s="20"/>
+      <c r="A65" s="51" t="s">
+        <v>169</v>
+      </c>
+      <c r="B65" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>171</v>
+      </c>
       <c r="E65" s="20"/>
       <c r="J65" s="6"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" s="21" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="B66" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C66" s="21" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D66" s="20"/>
       <c r="E66" s="20"/>
@@ -2991,75 +3026,75 @@
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" s="21" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="B67" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>168</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
       <c r="J67" s="6"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B68" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="B68" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C68" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="D68" s="21"/>
-      <c r="E68" s="20"/>
+        <v>174</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>175</v>
+      </c>
+      <c r="E68" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="J68" s="6"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B69" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="D69" s="21" t="s">
-        <v>172</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D69" s="21"/>
       <c r="E69" s="20"/>
       <c r="J69" s="6"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="21" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B70" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C70" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="D70" s="20"/>
+      <c r="C70" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D70" s="21" t="s">
+        <v>180</v>
+      </c>
       <c r="E70" s="20"/>
       <c r="J70" s="6"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="21" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="B71" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C71" s="21" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D71" s="20"/>
       <c r="E71" s="20"/>
@@ -3067,13 +3102,13 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B72" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C72" s="25" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="21" t="s">
+        <v>182</v>
       </c>
       <c r="D72" s="20"/>
       <c r="E72" s="20"/>
@@ -3081,43 +3116,43 @@
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="21" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B73" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C73" s="44" t="s">
-        <v>178</v>
+      <c r="C73" s="25" t="s">
+        <v>184</v>
       </c>
       <c r="D73" s="20"/>
-      <c r="E73" s="20" t="s">
-        <v>179</v>
-      </c>
+      <c r="E73" s="20"/>
       <c r="J73" s="6"/>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="21" t="s">
-        <v>180</v>
-      </c>
-      <c r="B74" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C74" s="21" t="s">
-        <v>180</v>
+        <v>185</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C74" s="44" t="s">
+        <v>186</v>
       </c>
       <c r="D74" s="20"/>
-      <c r="E74" s="20"/>
+      <c r="E74" s="20" t="s">
+        <v>187</v>
+      </c>
       <c r="J74" s="6"/>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="21" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="B75" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C75" s="25" t="s">
-        <v>182</v>
+      <c r="C75" s="21" t="s">
+        <v>188</v>
       </c>
       <c r="D75" s="20"/>
       <c r="E75" s="20"/>
@@ -3125,147 +3160,143 @@
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="B76" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C76" s="44" t="s">
-        <v>184</v>
-      </c>
-      <c r="D76" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>186</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B76" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76" s="20"/>
+      <c r="E76" s="20"/>
       <c r="J76" s="6"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="B77" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C77" s="21" t="s">
-        <v>188</v>
+        <v>191</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" s="44" t="s">
+        <v>192</v>
       </c>
       <c r="D77" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="E77" s="20">
-        <v>3</v>
+        <v>193</v>
+      </c>
+      <c r="E77" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="J77" s="6"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="B78" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C78" s="21" t="s">
-        <v>188</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B78" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C78" s="21"/>
       <c r="D78" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="E78" s="20" t="s">
-        <v>192</v>
+        <v>196</v>
+      </c>
+      <c r="E78" s="20">
+        <v>3</v>
       </c>
       <c r="J78" s="6"/>
     </row>
-    <row r="79" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B79" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C79" s="21" t="s">
-        <v>193</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C79" s="21"/>
       <c r="D79" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="E79" s="23" t="s">
-        <v>195</v>
+        <v>198</v>
+      </c>
+      <c r="E79" s="20" t="s">
+        <v>199</v>
       </c>
       <c r="J79" s="6"/>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="B80" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C80" s="21"/>
+        <v>200</v>
+      </c>
+      <c r="B80" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C80" s="21" t="s">
+        <v>200</v>
+      </c>
       <c r="D80" s="21" t="s">
-        <v>197</v>
-      </c>
-      <c r="E80" s="20" t="s">
-        <v>198</v>
+        <v>201</v>
+      </c>
+      <c r="E80" s="23" t="s">
+        <v>202</v>
       </c>
       <c r="J80" s="6"/>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" s="21" t="s">
-        <v>199</v>
-      </c>
-      <c r="B81" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C81" s="21" t="s">
-        <v>199</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81" s="21"/>
       <c r="D81" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="E81" s="20"/>
+        <v>204</v>
+      </c>
+      <c r="E81" s="20" t="s">
+        <v>205</v>
+      </c>
       <c r="J81" s="6"/>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" s="21" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B82" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C82" s="26" t="s">
-        <v>201</v>
+      <c r="C82" s="21" t="s">
+        <v>206</v>
       </c>
       <c r="D82" s="21" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="E82" s="20"/>
       <c r="J82" s="6"/>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83" s="21" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C83" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="D83" s="20"/>
+      <c r="C83" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>207</v>
+      </c>
       <c r="E83" s="20"/>
       <c r="J83" s="6"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B84" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C84" s="21" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D84" s="20"/>
       <c r="E84" s="20"/>
@@ -3273,185 +3304,179 @@
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="21" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B85" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C85" s="25" t="s">
-        <v>204</v>
-      </c>
-      <c r="D85" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="E85" s="20" t="s">
-        <v>206</v>
-      </c>
+      <c r="C85" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="D85" s="20"/>
+      <c r="E85" s="20"/>
       <c r="J85" s="6"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86" s="21" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B86" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C86" s="25" t="s">
-        <v>207</v>
-      </c>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
+        <v>211</v>
+      </c>
+      <c r="D86" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E86" s="20" t="s">
+        <v>213</v>
+      </c>
       <c r="J86" s="6"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="21" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B87" s="20" t="s">
         <v>25</v>
       </c>
       <c r="C87" s="25" t="s">
-        <v>209</v>
-      </c>
-      <c r="D87" s="21" t="s">
-        <v>210</v>
-      </c>
-      <c r="E87" s="20" t="s">
-        <v>211</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="D87" s="20"/>
+      <c r="E87" s="20"/>
       <c r="J87" s="6"/>
     </row>
-    <row r="88" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="B88" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C88" s="44" t="s">
-        <v>213</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="B88" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="25"/>
       <c r="D88" s="21" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E88" s="20" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="J88" s="6"/>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="B89" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="D89" s="20"/>
-      <c r="E89" s="20"/>
+        <v>218</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C89" s="44"/>
+      <c r="D89" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E89" s="20" t="s">
+        <v>220</v>
+      </c>
       <c r="J89" s="6"/>
     </row>
-    <row r="90" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="B90" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C90" s="44" t="s">
-        <v>213</v>
-      </c>
-      <c r="D90" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="E90" s="20" t="s">
-        <v>213</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="B90" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C90" s="21" t="s">
+        <v>221</v>
+      </c>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
       <c r="J90" s="6"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="21" t="s">
-        <v>217</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="D91" s="20"/>
-      <c r="E91" s="20"/>
+        <v>222</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C91" s="44"/>
+      <c r="D91" s="21" t="s">
+        <v>219</v>
+      </c>
+      <c r="E91" s="20" t="s">
+        <v>220</v>
+      </c>
       <c r="J91" s="6"/>
     </row>
-    <row r="92" spans="1:10" ht="360" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="21" t="s">
-        <v>219</v>
-      </c>
-      <c r="B92" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C92" s="25"/>
-      <c r="D92" s="27" t="s">
-        <v>220</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="B92" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C92" s="21" t="s">
+        <v>224</v>
+      </c>
+      <c r="D92" s="20"/>
       <c r="E92" s="20"/>
       <c r="J92" s="6"/>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" ht="360" x14ac:dyDescent="0.25">
       <c r="A93" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="B93" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C93" s="21" t="s">
-        <v>221</v>
-      </c>
-      <c r="D93" s="20"/>
+        <v>225</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C93" s="25"/>
+      <c r="D93" s="27" t="s">
+        <v>226</v>
+      </c>
       <c r="E93" s="20"/>
       <c r="J93" s="6"/>
     </row>
-    <row r="94" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94" s="21" t="s">
-        <v>222</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94" s="27" t="s">
-        <v>364</v>
-      </c>
-      <c r="D94" s="21" t="s">
-        <v>223</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="B94" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C94" s="21" t="s">
+        <v>227</v>
+      </c>
+      <c r="D94" s="20"/>
       <c r="E94" s="20"/>
       <c r="J94" s="6"/>
     </row>
-    <row r="95" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A95" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B95" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C95" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D95" s="20"/>
+        <v>228</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="D95" s="21" t="s">
+        <v>230</v>
+      </c>
       <c r="E95" s="20"/>
       <c r="J95" s="6"/>
     </row>
-    <row r="96" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96" s="21" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="B96" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C96" s="20" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="D96" s="20"/>
       <c r="E96" s="20"/>
@@ -3459,69 +3484,69 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="B97" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="21" t="s">
-        <v>228</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B97" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" s="20"/>
       <c r="E97" s="20"/>
       <c r="J97" s="6"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98" s="21" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B98" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C98" s="21"/>
       <c r="D98" s="21" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="E98" s="20"/>
       <c r="J98" s="6"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99" s="21" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="B99" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C99" s="21"/>
       <c r="D99" s="21" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E99" s="20"/>
       <c r="J99" s="6"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100" s="21" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B100" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="21" t="s">
-        <v>232</v>
-      </c>
-      <c r="D100" s="20"/>
+      <c r="C100" s="21"/>
+      <c r="D100" s="21" t="s">
+        <v>239</v>
+      </c>
       <c r="E100" s="20"/>
       <c r="J100" s="6"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="21" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="B101" s="21" t="s">
         <v>25</v>
       </c>
       <c r="C101" s="21" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="D101" s="20"/>
       <c r="E101" s="20"/>
@@ -3529,1222 +3554,1231 @@
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102" s="21" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="B102" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C102" s="21"/>
-      <c r="D102" s="21" t="s">
-        <v>228</v>
-      </c>
+      <c r="C102" s="21" t="s">
+        <v>241</v>
+      </c>
+      <c r="D102" s="20"/>
       <c r="E102" s="20"/>
       <c r="J102" s="6"/>
     </row>
-    <row r="103" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="24" t="s">
-        <v>235</v>
-      </c>
-      <c r="B103" s="29"/>
-      <c r="C103" s="29"/>
-      <c r="D103" s="29"/>
-      <c r="E103" s="29"/>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="21" t="s">
+        <v>242</v>
+      </c>
+      <c r="B103" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C103" s="21"/>
+      <c r="D103" s="21" t="s">
+        <v>236</v>
+      </c>
+      <c r="E103" s="20"/>
       <c r="J103" s="6"/>
     </row>
-    <row r="104" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="51"/>
-      <c r="B104" s="20"/>
-      <c r="C104" s="20"/>
-      <c r="D104" s="20"/>
-      <c r="E104" s="20"/>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="B104" s="29"/>
+      <c r="C104" s="29"/>
+      <c r="D104" s="29"/>
+      <c r="E104" s="29"/>
       <c r="J104" s="6"/>
     </row>
-    <row r="105" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="B105" s="20" t="s">
-        <v>237</v>
-      </c>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="20"/>
+      <c r="B105" s="20"/>
       <c r="C105" s="20"/>
-      <c r="D105" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="E105" s="20" t="s">
-        <v>238</v>
-      </c>
+      <c r="D105" s="20"/>
+      <c r="E105" s="20"/>
       <c r="J105" s="6"/>
     </row>
-    <row r="106" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="20" t="s">
-        <v>94</v>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A106" s="30" t="s">
+        <v>244</v>
       </c>
       <c r="B106" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D106" s="21" t="s">
-        <v>239</v>
+        <v>245</v>
+      </c>
+      <c r="C106" s="20"/>
+      <c r="D106" s="30" t="s">
+        <v>246</v>
       </c>
       <c r="E106" s="20" t="s">
-        <v>95</v>
+        <v>246</v>
       </c>
       <c r="J106" s="6"/>
     </row>
-    <row r="107" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A107" s="21" t="s">
-        <v>240</v>
-      </c>
-      <c r="B107" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C107" s="21"/>
-      <c r="D107" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="E107" s="20"/>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B107" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C107" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D107" s="21" t="s">
+        <v>247</v>
+      </c>
+      <c r="E107" s="20" t="s">
+        <v>101</v>
+      </c>
       <c r="J107" s="6"/>
     </row>
-    <row r="108" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="24" t="s">
-        <v>242</v>
-      </c>
-      <c r="B108" s="29"/>
-      <c r="C108" s="29"/>
-      <c r="D108" s="29"/>
-      <c r="E108" s="29"/>
-    </row>
-    <row r="109" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="21" t="s">
+    <row r="108" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A108" s="21" t="s">
+        <v>248</v>
+      </c>
+      <c r="B108" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="21"/>
+      <c r="D108" s="27" t="s">
+        <v>249</v>
+      </c>
+      <c r="E108" s="20"/>
+      <c r="J108" s="6"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B109" s="29"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="21" t="s">
         <v>0</v>
-      </c>
-      <c r="B109" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C109" s="20"/>
-      <c r="D109" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="E109" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="110" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="21" t="s">
-        <v>1</v>
       </c>
       <c r="B110" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C110" s="20"/>
-      <c r="D110" s="21" t="s">
-        <v>243</v>
+      <c r="D110" s="30" t="s">
+        <v>84</v>
       </c>
       <c r="E110" s="20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="111" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111" s="21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B111" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C111" s="20"/>
-      <c r="D111" s="30" t="s">
-        <v>82</v>
+      <c r="D111" s="21" t="s">
+        <v>251</v>
       </c>
       <c r="E111" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="112" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112" s="21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B112" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C112" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="D112" s="21" t="s">
-        <v>245</v>
-      </c>
-      <c r="E112" s="31" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="20"/>
+      <c r="D112" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E112" s="20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B113" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C113" s="20" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="D113" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="32">
-        <v>1225000</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>253</v>
+      </c>
+      <c r="E113" s="31" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B114" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C114" s="20" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="D114" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="E114" s="20">
+        <v>35</v>
+      </c>
+      <c r="E114" s="32">
+        <v>1225000</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="21" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="21" t="s">
-        <v>249</v>
       </c>
       <c r="B115" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C115" s="38" t="s">
-        <v>250</v>
-      </c>
-      <c r="D115" s="20"/>
-      <c r="E115" s="20"/>
-    </row>
-    <row r="116" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C115" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="D115" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E115" s="20">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="21" t="s">
-        <v>10</v>
+        <v>257</v>
       </c>
       <c r="B116" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C116" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="D116" s="21" t="s">
+      <c r="C116" s="38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" s="20"/>
+      <c r="E116" s="20"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B117" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D117" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="E116" s="33">
+      <c r="E117" s="33">
         <v>1200000</v>
       </c>
     </row>
-    <row r="117" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="30" t="s">
-        <v>125</v>
-      </c>
-      <c r="B117" s="20" t="s">
-        <v>252</v>
-      </c>
-      <c r="C117" s="20"/>
-      <c r="D117" s="20" t="s">
-        <v>253</v>
-      </c>
-      <c r="E117" s="20" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="21" t="s">
-        <v>255</v>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="30" t="s">
+        <v>378</v>
       </c>
       <c r="B118" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C118" s="20" t="s">
-        <v>256</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="C118" s="20"/>
       <c r="D118" s="20" t="s">
-        <v>73</v>
+        <v>261</v>
       </c>
       <c r="E118" s="20" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="21" t="s">
-        <v>5</v>
+        <v>263</v>
       </c>
       <c r="B119" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C119" s="20"/>
-      <c r="D119" s="30" t="s">
-        <v>82</v>
+      <c r="C119" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D119" s="20" t="s">
+        <v>77</v>
       </c>
       <c r="E119" s="20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C120" s="20"/>
+      <c r="D120" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="E120" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="120" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="30" t="s">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="B120" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C120" s="20"/>
-      <c r="D120" s="20" t="s">
+      <c r="B121" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C121" s="20"/>
+      <c r="D121" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E120" s="20" t="s">
+      <c r="E121" s="20" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="121" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
-        <v>257</v>
-      </c>
-      <c r="B121" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="C121" s="20"/>
-      <c r="D121" s="20"/>
-      <c r="E121" s="20"/>
-    </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122" s="21" t="s">
-        <v>259</v>
+      <c r="A122" s="34" t="s">
+        <v>265</v>
       </c>
       <c r="B122" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C122" s="21" t="s">
-        <v>259</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="C122" s="20"/>
       <c r="D122" s="20"/>
-      <c r="E122" s="20" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E122" s="20"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="21" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="B123" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C123" s="20" t="s">
-        <v>262</v>
+        <v>25</v>
+      </c>
+      <c r="C123" s="21" t="s">
+        <v>267</v>
       </c>
       <c r="D123" s="20"/>
       <c r="E123" s="20" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="21" t="s">
-        <v>14</v>
+        <v>269</v>
       </c>
       <c r="B124" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="21" t="s">
-        <v>14</v>
+        <v>23</v>
+      </c>
+      <c r="C124" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="D124" s="20"/>
       <c r="E124" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="21" t="s">
         <v>14</v>
       </c>
       <c r="B125" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C125" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="D125" s="20"/>
+      <c r="E125" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" s="51" t="s">
         <v>23</v>
       </c>
-      <c r="C125" s="21" t="s">
-        <v>264</v>
-      </c>
-      <c r="D125" s="21"/>
-      <c r="E125" s="20"/>
-    </row>
-    <row r="126" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="30" t="s">
+      <c r="C126" s="51" t="s">
+        <v>272</v>
+      </c>
+      <c r="D126" s="21"/>
+      <c r="E126" s="20"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B126" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C126" s="20" t="s">
-        <v>265</v>
-      </c>
-      <c r="D126" s="20" t="s">
+      <c r="B127" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C127" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="D127" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="E126" s="20" t="s">
+      <c r="E127" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="B127" s="20"/>
-      <c r="C127" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="D127" s="20"/>
-      <c r="E127" s="35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="21" t="s">
+        <v>231</v>
+      </c>
+      <c r="B128" s="20"/>
+      <c r="C128" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="D128" s="20"/>
+      <c r="E128" s="35">
         <v>1551</v>
       </c>
     </row>
-    <row r="128" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="21" t="s">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="B128" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C128" s="21" t="s">
+      <c r="B129" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C129" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="D128" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E128" s="20">
+      <c r="D129" s="21" t="s">
+        <v>275</v>
+      </c>
+      <c r="E129" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="129" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="21" t="s">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="B129" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="C129" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>270</v>
-      </c>
-      <c r="E129" s="20">
+      <c r="B130" s="21" t="s">
+        <v>276</v>
+      </c>
+      <c r="C130" s="21" t="s">
+        <v>277</v>
+      </c>
+      <c r="D130" s="21" t="s">
+        <v>278</v>
+      </c>
+      <c r="E130" s="20">
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="21" t="s">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="B130" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="C130" s="21"/>
-      <c r="D130" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="E130" s="20" t="s">
+      <c r="B131" s="21" t="s">
+        <v>274</v>
+      </c>
+      <c r="C131" s="21"/>
+      <c r="D131" s="21" t="s">
+        <v>279</v>
+      </c>
+      <c r="E131" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="131" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B131" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" s="21" t="s">
-        <v>272</v>
-      </c>
-      <c r="D131" s="21" t="s">
-        <v>273</v>
-      </c>
-      <c r="E131" s="20" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="21" t="s">
-        <v>20</v>
+        <v>174</v>
       </c>
       <c r="B132" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C132" s="20" t="s">
-        <v>275</v>
-      </c>
-      <c r="D132" s="20"/>
+      <c r="C132" s="21" t="s">
+        <v>280</v>
+      </c>
+      <c r="D132" s="21" t="s">
+        <v>281</v>
+      </c>
       <c r="E132" s="20" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B133" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C133" s="25" t="s">
-        <v>277</v>
+        <v>23</v>
+      </c>
+      <c r="C133" s="20" t="s">
+        <v>283</v>
       </c>
       <c r="D133" s="20"/>
       <c r="E133" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="B134" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C134" s="25" t="s">
+        <v>286</v>
+      </c>
+      <c r="D134" s="20"/>
+      <c r="E134" s="20" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="21" t="s">
         <v>21</v>
-      </c>
-      <c r="B134" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C134" s="21" t="s">
-        <v>279</v>
-      </c>
-      <c r="D134" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E134" s="20" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="21" t="s">
-        <v>280</v>
       </c>
       <c r="B135" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C135" s="38" t="s">
-        <v>281</v>
-      </c>
-      <c r="D135" s="20" t="s">
-        <v>282</v>
-      </c>
-      <c r="E135" s="20">
-        <v>2</v>
+      <c r="C135" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="D135" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E135" s="20" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="21" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="B136" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C136" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D136" s="20"/>
-      <c r="E136" s="20"/>
+        <v>23</v>
+      </c>
+      <c r="C136" s="38" t="s">
+        <v>290</v>
+      </c>
+      <c r="D136" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="E136" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="21" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="B137" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C137" s="21" t="s">
-        <v>284</v>
-      </c>
-      <c r="D137" s="21" t="s">
-        <v>285</v>
-      </c>
-      <c r="E137" s="20" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="C137" s="38" t="s">
+        <v>293</v>
+      </c>
+      <c r="D137" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="E137" s="20"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="21" t="s">
-        <v>283</v>
-      </c>
-      <c r="B138" s="21" t="s">
-        <v>23</v>
+        <v>151</v>
+      </c>
+      <c r="B138" s="20" t="s">
+        <v>25</v>
       </c>
       <c r="C138" s="21" t="s">
-        <v>287</v>
-      </c>
-      <c r="D138" s="41" t="s">
-        <v>288</v>
-      </c>
-      <c r="E138" s="20" t="s">
-        <v>286</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D138" s="20"/>
+      <c r="E138" s="20"/>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="21" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="B139" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="C139" s="21" t="s">
-        <v>289</v>
-      </c>
-      <c r="D139" s="20"/>
-      <c r="E139" s="20"/>
+      <c r="C139" s="21"/>
+      <c r="D139" s="21" t="s">
+        <v>379</v>
+      </c>
+      <c r="E139" s="20" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="B140" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C140" s="21" t="s">
-        <v>290</v>
-      </c>
-      <c r="D140" s="20"/>
-      <c r="E140" s="20"/>
+        <v>297</v>
+      </c>
+      <c r="B140" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C140" s="21"/>
+      <c r="D140" s="41" t="s">
+        <v>298</v>
+      </c>
+      <c r="E140" s="20" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="21" t="s">
-        <v>291</v>
-      </c>
-      <c r="B141" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C141" s="21"/>
-      <c r="D141" s="21" t="s">
-        <v>292</v>
-      </c>
-      <c r="E141" s="20" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>299</v>
+      </c>
+      <c r="B141" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C141" s="21" t="s">
+        <v>299</v>
+      </c>
+      <c r="D141" s="20"/>
+      <c r="E141" s="20"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="21" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="B142" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C142" s="20" t="s">
-        <v>294</v>
+        <v>25</v>
+      </c>
+      <c r="C142" s="21" t="s">
+        <v>300</v>
       </c>
       <c r="D142" s="20"/>
       <c r="E142" s="20"/>
     </row>
-    <row r="143" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="30" t="s">
-        <v>101</v>
-      </c>
-      <c r="B143" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C143" s="20"/>
-      <c r="D143" s="20"/>
-      <c r="E143" s="20"/>
-    </row>
-    <row r="144" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="21" t="s">
+        <v>301</v>
+      </c>
+      <c r="B143" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" s="21"/>
+      <c r="D143" s="21" t="s">
+        <v>302</v>
+      </c>
+      <c r="E143" s="20" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="21" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="B144" s="20" t="s">
         <v>23</v>
       </c>
       <c r="C144" s="20" t="s">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="D144" s="20"/>
       <c r="E144" s="20"/>
     </row>
-    <row r="145" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="21" t="s">
-        <v>297</v>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="30" t="s">
+        <v>107</v>
       </c>
       <c r="B145" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C145" s="36" t="s">
-        <v>298</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C145" s="20"/>
       <c r="D145" s="20"/>
       <c r="E145" s="20"/>
     </row>
-    <row r="146" spans="1:5" s="9" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="20" t="s">
-        <v>299</v>
-      </c>
-      <c r="B146" s="20"/>
-      <c r="C146" s="36"/>
-      <c r="D146" s="20" t="s">
-        <v>300</v>
-      </c>
-      <c r="E146" s="37">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="21" t="s">
+        <v>305</v>
+      </c>
+      <c r="B146" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146" s="20" t="s">
+        <v>306</v>
+      </c>
+      <c r="D146" s="20"/>
+      <c r="E146" s="20"/>
+    </row>
+    <row r="147" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="21" t="s">
+        <v>307</v>
+      </c>
+      <c r="B147" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C147" s="36" t="s">
+        <v>308</v>
+      </c>
+      <c r="D147" s="20"/>
+      <c r="E147" s="20"/>
+    </row>
+    <row r="148" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="B148" s="20"/>
+      <c r="C148" s="36"/>
+      <c r="D148" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="E148" s="37">
         <v>157.96</v>
       </c>
     </row>
-    <row r="147" spans="1:5" s="9" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A147" s="21" t="s">
-        <v>301</v>
-      </c>
-      <c r="B147" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="C147" s="36"/>
-      <c r="D147" s="23" t="s">
-        <v>303</v>
-      </c>
-      <c r="E147" s="23" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="24" t="s">
-        <v>305</v>
-      </c>
-      <c r="B148" s="24"/>
-      <c r="C148" s="24"/>
-      <c r="D148" s="24"/>
-      <c r="E148" s="24"/>
-    </row>
-    <row r="149" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="20" t="s">
-        <v>306</v>
+    <row r="149" spans="1:5" s="9" customFormat="1" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A149" s="28" t="s">
+        <v>311</v>
       </c>
       <c r="B149" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C149" s="21"/>
-      <c r="D149" s="21" t="s">
-        <v>307</v>
-      </c>
-      <c r="E149" s="20"/>
-    </row>
-    <row r="150" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="22" t="s">
-        <v>308</v>
-      </c>
-      <c r="B150" s="20"/>
-      <c r="C150" s="20"/>
-      <c r="D150" s="20"/>
-      <c r="E150" s="20"/>
-    </row>
-    <row r="151" spans="1:5" s="7" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="21" t="s">
-        <v>309</v>
+        <v>312</v>
+      </c>
+      <c r="C149" s="36"/>
+      <c r="D149" s="23" t="s">
+        <v>313</v>
+      </c>
+      <c r="E149" s="23" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="24" t="s">
+        <v>315</v>
+      </c>
+      <c r="B150" s="24"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
+      <c r="E150" s="24"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="28" t="s">
+        <v>316</v>
       </c>
       <c r="B151" s="21" t="s">
-        <v>310</v>
-      </c>
-      <c r="C151" s="21" t="s">
-        <v>311</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C151" s="21"/>
       <c r="D151" s="21" t="s">
-        <v>312</v>
-      </c>
-      <c r="E151" s="20" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="22" t="s">
-        <v>314</v>
+        <v>317</v>
+      </c>
+      <c r="E151" s="20"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="28" t="s">
+        <v>318</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="20"/>
       <c r="D152" s="20"/>
       <c r="E152" s="20"/>
     </row>
-    <row r="153" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="22" t="s">
-        <v>315</v>
-      </c>
-      <c r="B153" s="20"/>
-      <c r="C153" s="20"/>
-      <c r="D153" s="20"/>
-      <c r="E153" s="20"/>
-    </row>
-    <row r="154" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="B154" s="29"/>
-      <c r="C154" s="29"/>
-      <c r="D154" s="29"/>
-      <c r="E154" s="29"/>
-    </row>
-    <row r="155" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="28" t="s">
+        <v>319</v>
+      </c>
+      <c r="B153" s="21" t="s">
+        <v>320</v>
+      </c>
+      <c r="C153" s="21" t="s">
+        <v>321</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>322</v>
+      </c>
+      <c r="E153" s="20" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B154" s="20"/>
+      <c r="C154" s="20"/>
+      <c r="D154" s="20"/>
+      <c r="E154" s="20"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="22" t="s">
-        <v>317</v>
-      </c>
-      <c r="B155" s="22" t="s">
-        <v>318</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="B155" s="20"/>
       <c r="C155" s="20"/>
-      <c r="D155" s="22" t="s">
-        <v>319</v>
-      </c>
+      <c r="D155" s="20"/>
       <c r="E155" s="20"/>
     </row>
-    <row r="156" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="24" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B156" s="29"/>
       <c r="C156" s="29"/>
       <c r="D156" s="29"/>
       <c r="E156" s="29"/>
     </row>
-    <row r="157" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B157" s="20" t="s">
-        <v>82</v>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="B157" s="22" t="s">
+        <v>328</v>
       </c>
       <c r="C157" s="20"/>
-      <c r="D157" s="28" t="s">
-        <v>321</v>
-      </c>
-      <c r="E157" s="20" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="B158" s="20" t="s">
-        <v>324</v>
-      </c>
-      <c r="C158" s="20"/>
-      <c r="D158" s="20" t="s">
-        <v>325</v>
-      </c>
-      <c r="E158" s="20" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="24" t="s">
-        <v>327</v>
-      </c>
-      <c r="B159" s="29"/>
-      <c r="C159" s="29"/>
-      <c r="D159" s="29"/>
-      <c r="E159" s="29"/>
-    </row>
-    <row r="160" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D157" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="E157" s="20"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="B158" s="29"/>
+      <c r="C158" s="29"/>
+      <c r="D158" s="29"/>
+      <c r="E158" s="29"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B159" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C159" s="20"/>
+      <c r="D159" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="E159" s="20" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="22" t="s">
-        <v>328</v>
-      </c>
-      <c r="B160" s="20">
+        <v>333</v>
+      </c>
+      <c r="B160" s="20" t="s">
+        <v>334</v>
+      </c>
+      <c r="C160" s="20"/>
+      <c r="D160" s="20" t="s">
+        <v>335</v>
+      </c>
+      <c r="E160" s="20" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A161" s="24" t="s">
+        <v>337</v>
+      </c>
+      <c r="B161" s="29"/>
+      <c r="C161" s="29"/>
+      <c r="D161" s="29"/>
+      <c r="E161" s="29"/>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A162" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B162" s="20">
         <v>915874</v>
-      </c>
-      <c r="C160" s="20"/>
-      <c r="D160" s="20"/>
-      <c r="E160" s="20"/>
-    </row>
-    <row r="161" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B161" s="20">
-        <v>909308</v>
-      </c>
-      <c r="C161" s="20"/>
-      <c r="D161" s="20"/>
-      <c r="E161" s="20"/>
-    </row>
-    <row r="162" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="30" t="s">
-        <v>108</v>
-      </c>
-      <c r="B162" s="20" t="s">
-        <v>82</v>
       </c>
       <c r="C162" s="20"/>
       <c r="D162" s="20"/>
       <c r="E162" s="20"/>
     </row>
-    <row r="163" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="30" t="s">
-        <v>330</v>
-      </c>
-      <c r="B163" s="20"/>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A163" s="22" t="s">
+        <v>339</v>
+      </c>
+      <c r="B163" s="20">
+        <v>909308</v>
+      </c>
       <c r="C163" s="20"/>
       <c r="D163" s="20"/>
       <c r="E163" s="20"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B164" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C164" s="21"/>
-      <c r="D164" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="E164" s="20" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="B165" s="29"/>
-      <c r="C165" s="29"/>
-      <c r="D165" s="29"/>
-      <c r="E165" s="29"/>
-    </row>
-    <row r="166" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B166" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C166" s="20"/>
-      <c r="D166" s="20"/>
-      <c r="E166" s="20"/>
-    </row>
-    <row r="167" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B167" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C167" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="D167" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="E167" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="J167" s="6"/>
-    </row>
-    <row r="168" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="30" t="s">
-        <v>277</v>
+      <c r="A164" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="B164" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C164" s="20"/>
+      <c r="D164" s="20"/>
+      <c r="E164" s="20"/>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A165" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="B165" s="20"/>
+      <c r="C165" s="20"/>
+      <c r="D165" s="20"/>
+      <c r="E165" s="20"/>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A166" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="B166" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C166" s="21"/>
+      <c r="D166" s="21" t="s">
+        <v>341</v>
+      </c>
+      <c r="E166" s="20" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A167" s="24" t="s">
+        <v>343</v>
+      </c>
+      <c r="B167" s="29"/>
+      <c r="C167" s="29"/>
+      <c r="D167" s="29"/>
+      <c r="E167" s="29"/>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A168" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="B168" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C168" s="25" t="s">
-        <v>277</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C168" s="20"/>
       <c r="D168" s="20"/>
       <c r="E168" s="20"/>
     </row>
-    <row r="169" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="30" t="s">
-        <v>21</v>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A169" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="B169" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C169" s="20" t="s">
-        <v>279</v>
+        <v>84</v>
+      </c>
+      <c r="C169" s="21" t="s">
+        <v>174</v>
       </c>
       <c r="D169" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E169" s="20"/>
-    </row>
-    <row r="170" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="E169" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="J169" s="6"/>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A170" s="30" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B170" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C170" s="38" t="s">
-        <v>281</v>
+        <v>84</v>
+      </c>
+      <c r="C170" s="25" t="s">
+        <v>286</v>
       </c>
       <c r="D170" s="20"/>
       <c r="E170" s="20"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="21" t="s">
-        <v>334</v>
-      </c>
-      <c r="B171" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C171" s="21" t="s">
-        <v>334</v>
+      <c r="A171" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B171" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C171" s="20" t="s">
+        <v>344</v>
       </c>
       <c r="D171" s="21" t="s">
-        <v>335</v>
+        <v>45</v>
       </c>
       <c r="E171" s="20"/>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A172" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="B172" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C172" s="21" t="s">
-        <v>336</v>
-      </c>
-      <c r="D172" s="21" t="s">
-        <v>73</v>
-      </c>
+      <c r="A172" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="B172" s="30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C172" s="38" t="s">
+        <v>345</v>
+      </c>
+      <c r="D172" s="20"/>
       <c r="E172" s="20"/>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A173" s="21" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="B173" s="21" t="s">
-        <v>338</v>
-      </c>
-      <c r="C173" s="21"/>
+        <v>25</v>
+      </c>
+      <c r="C173" s="21" t="s">
+        <v>346</v>
+      </c>
       <c r="D173" s="21" t="s">
-        <v>339</v>
-      </c>
-      <c r="E173" s="20" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="174" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="22" t="s">
-        <v>341</v>
+        <v>347</v>
+      </c>
+      <c r="E173" s="20"/>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A174" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="B174" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="C174" s="20"/>
-      <c r="D174" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="E174" s="20">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="175" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="24" t="s">
-        <v>344</v>
-      </c>
-      <c r="B175" s="29"/>
-      <c r="C175" s="29"/>
-      <c r="D175" s="29"/>
-      <c r="E175" s="29"/>
-    </row>
-    <row r="176" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="C174" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D174" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E174" s="20"/>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A175" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="B175" s="21" t="s">
+        <v>350</v>
+      </c>
+      <c r="C175" s="21"/>
+      <c r="D175" s="21" t="s">
+        <v>351</v>
+      </c>
+      <c r="E175" s="20" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176" s="22" t="s">
-        <v>345</v>
+        <v>353</v>
       </c>
       <c r="B176" s="20" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="C176" s="20"/>
-      <c r="D176" s="38" t="s">
-        <v>347</v>
-      </c>
-      <c r="E176" s="20" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="B177" s="30" t="s">
-        <v>350</v>
-      </c>
-      <c r="C177" s="20"/>
-      <c r="D177" s="20" t="s">
-        <v>351</v>
-      </c>
-      <c r="E177" s="20" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="D176" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="E176" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="B177" s="29"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="22" t="s">
-        <v>353</v>
-      </c>
-      <c r="B178" s="30" t="s">
-        <v>354</v>
+        <v>357</v>
+      </c>
+      <c r="B178" s="20" t="s">
+        <v>358</v>
       </c>
       <c r="C178" s="20"/>
-      <c r="D178" s="20"/>
+      <c r="D178" s="38" t="s">
+        <v>359</v>
+      </c>
       <c r="E178" s="20" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="22" t="s">
-        <v>14</v>
+        <v>361</v>
       </c>
       <c r="B179" s="30" t="s">
-        <v>354</v>
+        <v>362</v>
       </c>
       <c r="C179" s="20"/>
-      <c r="D179" s="20"/>
+      <c r="D179" s="20" t="s">
+        <v>363</v>
+      </c>
       <c r="E179" s="20" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="22" t="s">
-        <v>16</v>
+        <v>365</v>
       </c>
       <c r="B180" s="30" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C180" s="20"/>
       <c r="D180" s="20"/>
-      <c r="E180" s="20">
-        <v>1523</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E180" s="20" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="22" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B181" s="30" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C181" s="20"/>
       <c r="D181" s="20"/>
-      <c r="E181" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E181" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="22" t="s">
-        <v>19</v>
+        <v>231</v>
       </c>
       <c r="B182" s="30" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C182" s="20"/>
       <c r="D182" s="20"/>
-      <c r="E182" s="20" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E182" s="20">
+        <v>1523</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="22" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B183" s="30" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="C183" s="20"/>
       <c r="D183" s="20"/>
       <c r="E183" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B184" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C184" s="20"/>
+      <c r="D184" s="20"/>
+      <c r="E184" s="20" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B185" s="30" t="s">
+        <v>366</v>
+      </c>
+      <c r="C185" s="20"/>
+      <c r="D185" s="20"/>
+      <c r="E185" s="20">
         <v>7</v>
       </c>
     </row>
-    <row r="184" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="22" t="s">
-        <v>356</v>
-      </c>
-      <c r="B184" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C184" s="46">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="22" t="s">
+        <v>368</v>
+      </c>
+      <c r="B186" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C186" s="46">
         <v>40208542</v>
       </c>
-      <c r="D184" s="20"/>
-      <c r="E184" s="20"/>
-    </row>
-    <row r="185" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="22" t="s">
+      <c r="D186" s="20"/>
+      <c r="E186" s="20"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B185" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C185" s="46"/>
-      <c r="D185" s="20"/>
-      <c r="E185" s="20"/>
-    </row>
-    <row r="186" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="22" t="s">
-        <v>358</v>
-      </c>
-      <c r="B186" s="20" t="s">
-        <v>357</v>
-      </c>
-      <c r="C186" s="47" t="s">
-        <v>359</v>
-      </c>
-      <c r="D186" s="48">
+      <c r="B187" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C187" s="46"/>
+      <c r="D187" s="20"/>
+      <c r="E187" s="20"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="B188" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="C188" s="47" t="s">
+        <v>371</v>
+      </c>
+      <c r="D188" s="48">
         <v>44612</v>
       </c>
-      <c r="E186" s="20"/>
-    </row>
-    <row r="187" spans="1:5" ht="390" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="21" t="s">
-        <v>360</v>
-      </c>
-      <c r="B187" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="E187" s="39" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="21" t="s">
-        <v>362</v>
-      </c>
-      <c r="B188" s="21" t="s">
-        <v>237</v>
-      </c>
-      <c r="C188" s="21"/>
-      <c r="D188" s="45" t="s">
-        <v>363</v>
-      </c>
-      <c r="E188" s="40" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D189" s="19"/>
+      <c r="E188" s="20"/>
+    </row>
+    <row r="189" spans="1:5" ht="390" x14ac:dyDescent="0.25">
+      <c r="A189" s="21" t="s">
+        <v>372</v>
+      </c>
+      <c r="B189" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="E189" s="39" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D190" s="19"/>
+      <c r="A190" s="21" t="s">
+        <v>374</v>
+      </c>
+      <c r="B190" s="21" t="s">
+        <v>245</v>
+      </c>
+      <c r="C190" s="21"/>
+      <c r="D190" s="45" t="s">
+        <v>375</v>
+      </c>
+      <c r="E190" s="40" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" s="52" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="54" t="s">
+        <v>376</v>
+      </c>
+      <c r="B191" s="52" t="s">
+        <v>377</v>
+      </c>
+      <c r="D191" s="53"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D192" s="19"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A1:K188" xr:uid="{A5BB0479-537D-4E53-8542-E88B94FB0215}">
-    <filterColumn colId="1">
-      <filters>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <x14:filter val="Constant (just leave # where they are in output - these are just markers to remind me to fill in details that don't come from inspection form/scrape"/>
-            <x14:filter val="Copy effective age from above or Effective age is in inspection form and economic life is always 60"/>
-            <x14:filter val="Copy from below (inspection form versions) Building type + Style"/>
-            <x14:filter val="Inspection form"/>
-            <x14:filter val="Matrix-listing/overwrite with value from inspection form if City field it filled and keep Matrix if not specified in inspection form"/>
-            <x14:filter val="This is conditional on property type in inspection form and variables from inspection form (any variables are ALL_CAPS in example text) but all of these variables are already in script so you can copy variables from above; ignore # - these will just be markers for me to fill things that don't come from form/scrape manually"/>
-          </mc:Choice>
-          <mc:Fallback>
-            <filter val="Constant (just leave # where they are in output - these are just markers to remind me to fill in details that don't come from inspection form/scrape"/>
-            <filter val="Copy effective age from above or Effective age is in inspection form and economic life is always 60"/>
-            <filter val="Copy from below (inspection form versions) Building type + Style"/>
-            <filter val="Inspection form"/>
-            <filter val="Matrix-listing/overwrite with value from inspection form if City field it filled and keep Matrix if not specified in inspection form"/>
-          </mc:Fallback>
-        </mc:AlternateContent>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K191" xr:uid="{A5BB0479-537D-4E53-8542-E88B94FB0215}"/>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" display="https://www.niagararegion.ca/government/budget-taxes/prop-tax-calculator.aspx    AND THIS IS HALTON https://www.halton.ca/The-Region/Finance-and-Transparency/Property-Taxes/Halton-Region-Property-Tax-Estimator    HAMILTON TAX PAGE REQUIRES DISTRICT AND SO IS HARDER TO KNOW IN FIELD...MAYBE SOMETHING TO REVISIT LATER" xr:uid="{C706C4BE-EB13-476E-A5BF-EECD99A01E7B}"/>
+    <hyperlink ref="B18" r:id="rId1" display="https://www.niagararegion.ca/government/budget-taxes/prop-tax-calculator.aspx    AND THIS IS HALTON https://www.halton.ca/The-Region/Finance-and-Transparency/Property-Taxes/Halton-Region-Property-Tax-Estimator    HAMILTON TAX PAGE REQUIRES DISTRICT AND SO IS HARDER TO KNOW IN FIELD...MAYBE SOMETHING TO REVISIT LATER" xr:uid="{C706C4BE-EB13-476E-A5BF-EECD99A01E7B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="5" orientation="portrait" horizontalDpi="150" verticalDpi="150" r:id="rId2"/>
